--- a/src/assets/farmer-import/Template_list of farmers_NEW.xlsx
+++ b/src/assets/farmer-import/Template_list of farmers_NEW.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nejc\Documents\Work\Sunesis\INAtrace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpaspalovski/IntellijProjects/inatrace/inatrace-fe/src/assets/farmer-import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D985B-1E26-43A6-BC8A-A7F8BB534B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA0E02-6116-994D-B698-073674D4EC32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>E-mail</t>
-  </si>
-  <si>
-    <t>Number of coffee trees</t>
   </si>
   <si>
     <t>Bank name</t>
@@ -119,9 +116,6 @@
     <t>Total cultivated area</t>
   </si>
   <si>
-    <t>Area cultivated with coffee</t>
-  </si>
-  <si>
     <t>Area organic certified</t>
   </si>
   <si>
@@ -149,6 +143,12 @@
       </rPr>
       <t xml:space="preserve"> to organic</t>
     </r>
+  </si>
+  <si>
+    <t>Area cultivated with plant</t>
+  </si>
+  <si>
+    <t>Number of plants</t>
   </si>
 </sst>
 </file>
@@ -358,9 +358,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="24" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,33 +377,36 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="Hiperpovezava" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperpovezava" xfId="24" builtinId="8"/>
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Normal 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="Normal 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Obiskana hiperpovezava" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,7 +462,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -568,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -744,54 +744,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
-    <col min="6" max="14" width="19.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" customWidth="1"/>
-    <col min="16" max="16" width="29.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="1" customWidth="1"/>
-    <col min="21" max="22" width="26.42578125" style="1" customWidth="1"/>
-    <col min="23" max="27" width="18.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
+    <col min="6" max="14" width="19.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.1640625" customWidth="1"/>
+    <col min="16" max="16" width="29.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="26.5" style="1" customWidth="1"/>
+    <col min="23" max="27" width="18.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5" style="1" customWidth="1"/>
     <col min="29" max="29" width="26" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" customWidth="1"/>
-    <col min="31" max="31" width="25.42578125" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" customWidth="1"/>
+    <col min="30" max="30" width="21.1640625" customWidth="1"/>
+    <col min="31" max="31" width="25.5" customWidth="1"/>
+    <col min="32" max="32" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="1:38" ht="26" x14ac:dyDescent="0.25">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -804,120 +804,120 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D4" s="16"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:38" s="27" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:38" s="26" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="23" t="s">
+      <c r="AA5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="AB5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="AC5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AF5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -957,7 +957,7 @@
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -997,7 +997,7 @@
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1037,7 +1037,7 @@
       <c r="AK8" s="10"/>
       <c r="AL8" s="10"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1077,7 +1077,7 @@
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1117,7 +1117,7 @@
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1157,7 +1157,7 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1197,7 +1197,7 @@
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1237,7 +1237,7 @@
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1277,7 +1277,7 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1317,7 +1317,7 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1357,7 +1357,7 @@
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -1397,7 +1397,7 @@
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1437,7 +1437,7 @@
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1477,7 +1477,7 @@
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1517,7 +1517,7 @@
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -1557,7 +1557,7 @@
       <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1597,7 +1597,7 @@
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1637,7 +1637,7 @@
       <c r="AK23" s="10"/>
       <c r="AL23" s="10"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1677,7 +1677,7 @@
       <c r="AK24" s="10"/>
       <c r="AL24" s="10"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -1717,7 +1717,7 @@
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1757,7 +1757,7 @@
       <c r="AK26" s="10"/>
       <c r="AL26" s="10"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1797,7 +1797,7 @@
       <c r="AK27" s="10"/>
       <c r="AL27" s="10"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1837,7 +1837,7 @@
       <c r="AK28" s="10"/>
       <c r="AL28" s="10"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
@@ -1877,7 +1877,7 @@
       <c r="AK29" s="10"/>
       <c r="AL29" s="10"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1917,7 +1917,7 @@
       <c r="AK30" s="10"/>
       <c r="AL30" s="10"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1957,7 +1957,7 @@
       <c r="AK31" s="10"/>
       <c r="AL31" s="10"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1997,7 +1997,7 @@
       <c r="AK32" s="10"/>
       <c r="AL32" s="10"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
@@ -2037,7 +2037,7 @@
       <c r="AK33" s="10"/>
       <c r="AL33" s="10"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2077,7 +2077,7 @@
       <c r="AK34" s="10"/>
       <c r="AL34" s="10"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2117,7 +2117,7 @@
       <c r="AK35" s="10"/>
       <c r="AL35" s="10"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2157,7 +2157,7 @@
       <c r="AK36" s="10"/>
       <c r="AL36" s="10"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
@@ -2197,7 +2197,7 @@
       <c r="AK37" s="10"/>
       <c r="AL37" s="10"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2237,7 +2237,7 @@
       <c r="AK38" s="10"/>
       <c r="AL38" s="10"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2277,7 +2277,7 @@
       <c r="AK39" s="10"/>
       <c r="AL39" s="10"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2317,7 +2317,7 @@
       <c r="AK40" s="10"/>
       <c r="AL40" s="10"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
@@ -2357,7 +2357,7 @@
       <c r="AK41" s="10"/>
       <c r="AL41" s="10"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2397,7 +2397,7 @@
       <c r="AK42" s="10"/>
       <c r="AL42" s="10"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2437,7 +2437,7 @@
       <c r="AK43" s="10"/>
       <c r="AL43" s="10"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2477,7 +2477,7 @@
       <c r="AK44" s="10"/>
       <c r="AL44" s="10"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
@@ -2517,7 +2517,7 @@
       <c r="AK45" s="10"/>
       <c r="AL45" s="10"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2557,7 +2557,7 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2597,7 +2597,7 @@
       <c r="AK47" s="10"/>
       <c r="AL47" s="10"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2637,7 +2637,7 @@
       <c r="AK48" s="10"/>
       <c r="AL48" s="10"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
@@ -2677,7 +2677,7 @@
       <c r="AK49" s="10"/>
       <c r="AL49" s="10"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2717,7 +2717,7 @@
       <c r="AK50" s="10"/>
       <c r="AL50" s="10"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2757,7 +2757,7 @@
       <c r="AK51" s="10"/>
       <c r="AL51" s="10"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2797,7 +2797,7 @@
       <c r="AK52" s="10"/>
       <c r="AL52" s="10"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>
@@ -2837,7 +2837,7 @@
       <c r="AK53" s="10"/>
       <c r="AL53" s="10"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2877,7 +2877,7 @@
       <c r="AK54" s="10"/>
       <c r="AL54" s="10"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2917,7 +2917,7 @@
       <c r="AK55" s="10"/>
       <c r="AL55" s="10"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2957,7 +2957,7 @@
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
       <c r="C57" s="2"/>
@@ -2997,7 +2997,7 @@
       <c r="AK57" s="10"/>
       <c r="AL57" s="10"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3037,7 +3037,7 @@
       <c r="AK58" s="10"/>
       <c r="AL58" s="10"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3077,7 +3077,7 @@
       <c r="AK59" s="10"/>
       <c r="AL59" s="10"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3117,7 +3117,7 @@
       <c r="AK60" s="10"/>
       <c r="AL60" s="10"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
@@ -3157,7 +3157,7 @@
       <c r="AK61" s="10"/>
       <c r="AL61" s="10"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3197,7 +3197,7 @@
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3237,7 +3237,7 @@
       <c r="AK63" s="10"/>
       <c r="AL63" s="10"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3277,7 +3277,7 @@
       <c r="AK64" s="10"/>
       <c r="AL64" s="10"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="4"/>
       <c r="C65" s="2"/>
@@ -3317,7 +3317,7 @@
       <c r="AK65" s="10"/>
       <c r="AL65" s="10"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3357,7 +3357,7 @@
       <c r="AK66" s="10"/>
       <c r="AL66" s="10"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3397,7 +3397,7 @@
       <c r="AK67" s="10"/>
       <c r="AL67" s="10"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3437,7 +3437,7 @@
       <c r="AK68" s="10"/>
       <c r="AL68" s="10"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="2"/>
@@ -3477,7 +3477,7 @@
       <c r="AK69" s="10"/>
       <c r="AL69" s="10"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3517,7 +3517,7 @@
       <c r="AK70" s="10"/>
       <c r="AL70" s="10"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3557,7 +3557,7 @@
       <c r="AK71" s="10"/>
       <c r="AL71" s="10"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3597,7 +3597,7 @@
       <c r="AK72" s="10"/>
       <c r="AL72" s="10"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4"/>
       <c r="C73" s="2"/>
@@ -3637,7 +3637,7 @@
       <c r="AK73" s="10"/>
       <c r="AL73" s="10"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3677,7 +3677,7 @@
       <c r="AK74" s="10"/>
       <c r="AL74" s="10"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3717,7 +3717,7 @@
       <c r="AK75" s="10"/>
       <c r="AL75" s="10"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3757,7 +3757,7 @@
       <c r="AK76" s="10"/>
       <c r="AL76" s="10"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
       <c r="C77" s="2"/>
@@ -3797,7 +3797,7 @@
       <c r="AK77" s="10"/>
       <c r="AL77" s="10"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3837,7 +3837,7 @@
       <c r="AK78" s="10"/>
       <c r="AL78" s="10"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3877,7 +3877,7 @@
       <c r="AK79" s="10"/>
       <c r="AL79" s="10"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3917,7 +3917,7 @@
       <c r="AK80" s="10"/>
       <c r="AL80" s="10"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
@@ -3957,7 +3957,7 @@
       <c r="AK81" s="10"/>
       <c r="AL81" s="10"/>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3997,7 +3997,7 @@
       <c r="AK82" s="10"/>
       <c r="AL82" s="10"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4037,7 +4037,7 @@
       <c r="AK83" s="10"/>
       <c r="AL83" s="10"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4077,7 +4077,7 @@
       <c r="AK84" s="10"/>
       <c r="AL84" s="10"/>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
@@ -4117,7 +4117,7 @@
       <c r="AK85" s="10"/>
       <c r="AL85" s="10"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4157,7 +4157,7 @@
       <c r="AK86" s="10"/>
       <c r="AL86" s="10"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4197,7 +4197,7 @@
       <c r="AK87" s="10"/>
       <c r="AL87" s="10"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4237,7 +4237,7 @@
       <c r="AK88" s="10"/>
       <c r="AL88" s="10"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
@@ -4277,7 +4277,7 @@
       <c r="AK89" s="10"/>
       <c r="AL89" s="10"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4317,7 +4317,7 @@
       <c r="AK90" s="10"/>
       <c r="AL90" s="10"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4357,7 +4357,7 @@
       <c r="AK91" s="10"/>
       <c r="AL91" s="10"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4397,7 +4397,7 @@
       <c r="AK92" s="10"/>
       <c r="AL92" s="10"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
@@ -4437,7 +4437,7 @@
       <c r="AK93" s="10"/>
       <c r="AL93" s="10"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4477,7 +4477,7 @@
       <c r="AK94" s="10"/>
       <c r="AL94" s="10"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4517,7 +4517,7 @@
       <c r="AK95" s="10"/>
       <c r="AL95" s="10"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4557,7 +4557,7 @@
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
@@ -4597,7 +4597,7 @@
       <c r="AK97" s="10"/>
       <c r="AL97" s="10"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4637,7 +4637,7 @@
       <c r="AK98" s="10"/>
       <c r="AL98" s="10"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4677,7 +4677,7 @@
       <c r="AK99" s="10"/>
       <c r="AL99" s="10"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4717,7 +4717,7 @@
       <c r="AK100" s="10"/>
       <c r="AL100" s="10"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="2"/>
@@ -4757,7 +4757,7 @@
       <c r="AK101" s="10"/>
       <c r="AL101" s="10"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4797,7 +4797,7 @@
       <c r="AK102" s="10"/>
       <c r="AL102" s="10"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4837,7 +4837,7 @@
       <c r="AK103" s="10"/>
       <c r="AL103" s="10"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4877,7 +4877,7 @@
       <c r="AK104" s="10"/>
       <c r="AL104" s="10"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="2"/>
@@ -4917,7 +4917,7 @@
       <c r="AK105" s="10"/>
       <c r="AL105" s="10"/>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4957,7 +4957,7 @@
       <c r="AK106" s="10"/>
       <c r="AL106" s="10"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4997,7 +4997,7 @@
       <c r="AK107" s="10"/>
       <c r="AL107" s="10"/>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5037,7 +5037,7 @@
       <c r="AK108" s="10"/>
       <c r="AL108" s="10"/>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="2"/>
@@ -5077,7 +5077,7 @@
       <c r="AK109" s="10"/>
       <c r="AL109" s="10"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5117,7 +5117,7 @@
       <c r="AK110" s="10"/>
       <c r="AL110" s="10"/>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5157,7 +5157,7 @@
       <c r="AK111" s="10"/>
       <c r="AL111" s="10"/>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5197,7 +5197,7 @@
       <c r="AK112" s="10"/>
       <c r="AL112" s="10"/>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="2"/>
@@ -5237,7 +5237,7 @@
       <c r="AK113" s="10"/>
       <c r="AL113" s="10"/>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5277,7 +5277,7 @@
       <c r="AK114" s="10"/>
       <c r="AL114" s="10"/>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5317,7 +5317,7 @@
       <c r="AK115" s="10"/>
       <c r="AL115" s="10"/>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5357,7 +5357,7 @@
       <c r="AK116" s="10"/>
       <c r="AL116" s="10"/>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="2"/>
@@ -5397,7 +5397,7 @@
       <c r="AK117" s="10"/>
       <c r="AL117" s="10"/>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5437,7 +5437,7 @@
       <c r="AK118" s="10"/>
       <c r="AL118" s="10"/>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5477,7 +5477,7 @@
       <c r="AK119" s="10"/>
       <c r="AL119" s="10"/>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5517,7 +5517,7 @@
       <c r="AK120" s="10"/>
       <c r="AL120" s="10"/>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="4"/>
       <c r="C121" s="2"/>
@@ -5557,7 +5557,7 @@
       <c r="AK121" s="10"/>
       <c r="AL121" s="10"/>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5597,7 +5597,7 @@
       <c r="AK122" s="10"/>
       <c r="AL122" s="10"/>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5637,7 +5637,7 @@
       <c r="AK123" s="10"/>
       <c r="AL123" s="10"/>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5677,7 +5677,7 @@
       <c r="AK124" s="10"/>
       <c r="AL124" s="10"/>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="4"/>
       <c r="C125" s="2"/>
@@ -5717,7 +5717,7 @@
       <c r="AK125" s="10"/>
       <c r="AL125" s="10"/>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5757,7 +5757,7 @@
       <c r="AK126" s="10"/>
       <c r="AL126" s="10"/>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5797,7 +5797,7 @@
       <c r="AK127" s="10"/>
       <c r="AL127" s="10"/>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5837,7 +5837,7 @@
       <c r="AK128" s="10"/>
       <c r="AL128" s="10"/>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="4"/>
       <c r="C129" s="2"/>
@@ -5877,7 +5877,7 @@
       <c r="AK129" s="10"/>
       <c r="AL129" s="10"/>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5917,7 +5917,7 @@
       <c r="AK130" s="10"/>
       <c r="AL130" s="10"/>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5957,7 +5957,7 @@
       <c r="AK131" s="10"/>
       <c r="AL131" s="10"/>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5997,7 +5997,7 @@
       <c r="AK132" s="10"/>
       <c r="AL132" s="10"/>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="4"/>
       <c r="C133" s="2"/>
@@ -6037,7 +6037,7 @@
       <c r="AK133" s="10"/>
       <c r="AL133" s="10"/>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6077,7 +6077,7 @@
       <c r="AK134" s="10"/>
       <c r="AL134" s="10"/>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6117,7 +6117,7 @@
       <c r="AK135" s="10"/>
       <c r="AL135" s="10"/>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6157,7 +6157,7 @@
       <c r="AK136" s="10"/>
       <c r="AL136" s="10"/>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="4"/>
       <c r="C137" s="2"/>
@@ -6197,7 +6197,7 @@
       <c r="AK137" s="10"/>
       <c r="AL137" s="10"/>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6237,7 +6237,7 @@
       <c r="AK138" s="10"/>
       <c r="AL138" s="10"/>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6277,7 +6277,7 @@
       <c r="AK139" s="10"/>
       <c r="AL139" s="10"/>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6317,7 +6317,7 @@
       <c r="AK140" s="10"/>
       <c r="AL140" s="10"/>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="4"/>
       <c r="C141" s="2"/>
@@ -6357,7 +6357,7 @@
       <c r="AK141" s="10"/>
       <c r="AL141" s="10"/>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6397,7 +6397,7 @@
       <c r="AK142" s="10"/>
       <c r="AL142" s="10"/>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6437,7 +6437,7 @@
       <c r="AK143" s="10"/>
       <c r="AL143" s="10"/>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6477,7 +6477,7 @@
       <c r="AK144" s="10"/>
       <c r="AL144" s="10"/>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="4"/>
       <c r="C145" s="2"/>
@@ -6517,7 +6517,7 @@
       <c r="AK145" s="10"/>
       <c r="AL145" s="10"/>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6557,7 +6557,7 @@
       <c r="AK146" s="10"/>
       <c r="AL146" s="10"/>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6597,7 +6597,7 @@
       <c r="AK147" s="10"/>
       <c r="AL147" s="10"/>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6637,7 +6637,7 @@
       <c r="AK148" s="10"/>
       <c r="AL148" s="10"/>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="4"/>
       <c r="C149" s="2"/>
@@ -6677,7 +6677,7 @@
       <c r="AK149" s="10"/>
       <c r="AL149" s="10"/>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6717,7 +6717,7 @@
       <c r="AK150" s="10"/>
       <c r="AL150" s="10"/>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6757,7 +6757,7 @@
       <c r="AK151" s="10"/>
       <c r="AL151" s="10"/>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6797,7 +6797,7 @@
       <c r="AK152" s="10"/>
       <c r="AL152" s="10"/>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="4"/>
       <c r="C153" s="2"/>
@@ -6837,7 +6837,7 @@
       <c r="AK153" s="10"/>
       <c r="AL153" s="10"/>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6877,7 +6877,7 @@
       <c r="AK154" s="10"/>
       <c r="AL154" s="10"/>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6917,7 +6917,7 @@
       <c r="AK155" s="10"/>
       <c r="AL155" s="10"/>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6957,7 +6957,7 @@
       <c r="AK156" s="10"/>
       <c r="AL156" s="10"/>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="4"/>
       <c r="C157" s="2"/>
@@ -6997,7 +6997,7 @@
       <c r="AK157" s="10"/>
       <c r="AL157" s="10"/>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7037,7 +7037,7 @@
       <c r="AK158" s="10"/>
       <c r="AL158" s="10"/>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7077,7 +7077,7 @@
       <c r="AK159" s="10"/>
       <c r="AL159" s="10"/>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7117,7 +7117,7 @@
       <c r="AK160" s="10"/>
       <c r="AL160" s="10"/>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="4"/>
       <c r="C161" s="2"/>
@@ -7157,7 +7157,7 @@
       <c r="AK161" s="10"/>
       <c r="AL161" s="10"/>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7197,7 +7197,7 @@
       <c r="AK162" s="10"/>
       <c r="AL162" s="10"/>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7237,7 +7237,7 @@
       <c r="AK163" s="10"/>
       <c r="AL163" s="10"/>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7277,7 +7277,7 @@
       <c r="AK164" s="10"/>
       <c r="AL164" s="10"/>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="4"/>
       <c r="C165" s="2"/>
@@ -7317,7 +7317,7 @@
       <c r="AK165" s="10"/>
       <c r="AL165" s="10"/>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7357,7 +7357,7 @@
       <c r="AK166" s="10"/>
       <c r="AL166" s="10"/>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7397,7 +7397,7 @@
       <c r="AK167" s="10"/>
       <c r="AL167" s="10"/>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7437,7 +7437,7 @@
       <c r="AK168" s="10"/>
       <c r="AL168" s="10"/>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="4"/>
       <c r="C169" s="2"/>
@@ -7477,7 +7477,7 @@
       <c r="AK169" s="10"/>
       <c r="AL169" s="10"/>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7517,7 +7517,7 @@
       <c r="AK170" s="10"/>
       <c r="AL170" s="10"/>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7557,7 +7557,7 @@
       <c r="AK171" s="10"/>
       <c r="AL171" s="10"/>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7597,7 +7597,7 @@
       <c r="AK172" s="10"/>
       <c r="AL172" s="10"/>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="4"/>
       <c r="C173" s="2"/>
@@ -7637,7 +7637,7 @@
       <c r="AK173" s="10"/>
       <c r="AL173" s="10"/>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7677,7 +7677,7 @@
       <c r="AK174" s="10"/>
       <c r="AL174" s="10"/>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7717,7 +7717,7 @@
       <c r="AK175" s="10"/>
       <c r="AL175" s="10"/>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7757,7 +7757,7 @@
       <c r="AK176" s="10"/>
       <c r="AL176" s="10"/>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="4"/>
       <c r="C177" s="2"/>
@@ -7797,7 +7797,7 @@
       <c r="AK177" s="10"/>
       <c r="AL177" s="10"/>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7837,7 +7837,7 @@
       <c r="AK178" s="10"/>
       <c r="AL178" s="10"/>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7877,7 +7877,7 @@
       <c r="AK179" s="10"/>
       <c r="AL179" s="10"/>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7917,7 +7917,7 @@
       <c r="AK180" s="10"/>
       <c r="AL180" s="10"/>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="4"/>
       <c r="C181" s="2"/>
@@ -7957,7 +7957,7 @@
       <c r="AK181" s="10"/>
       <c r="AL181" s="10"/>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7997,7 +7997,7 @@
       <c r="AK182" s="10"/>
       <c r="AL182" s="10"/>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -8037,7 +8037,7 @@
       <c r="AK183" s="10"/>
       <c r="AL183" s="10"/>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8077,7 +8077,7 @@
       <c r="AK184" s="10"/>
       <c r="AL184" s="10"/>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="4"/>
       <c r="C185" s="2"/>
@@ -8117,7 +8117,7 @@
       <c r="AK185" s="10"/>
       <c r="AL185" s="10"/>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -8157,7 +8157,7 @@
       <c r="AK186" s="10"/>
       <c r="AL186" s="10"/>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -8197,7 +8197,7 @@
       <c r="AK187" s="10"/>
       <c r="AL187" s="10"/>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -8237,7 +8237,7 @@
       <c r="AK188" s="10"/>
       <c r="AL188" s="10"/>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="4"/>
       <c r="C189" s="2"/>
@@ -8277,7 +8277,7 @@
       <c r="AK189" s="10"/>
       <c r="AL189" s="10"/>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -8317,7 +8317,7 @@
       <c r="AK190" s="10"/>
       <c r="AL190" s="10"/>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -8357,7 +8357,7 @@
       <c r="AK191" s="10"/>
       <c r="AL191" s="10"/>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -8397,7 +8397,7 @@
       <c r="AK192" s="10"/>
       <c r="AL192" s="10"/>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="4"/>
       <c r="C193" s="2"/>
@@ -8437,7 +8437,7 @@
       <c r="AK193" s="10"/>
       <c r="AL193" s="10"/>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -8477,7 +8477,7 @@
       <c r="AK194" s="10"/>
       <c r="AL194" s="10"/>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -8517,7 +8517,7 @@
       <c r="AK195" s="10"/>
       <c r="AL195" s="10"/>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -8557,7 +8557,7 @@
       <c r="AK196" s="10"/>
       <c r="AL196" s="10"/>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="4"/>
       <c r="C197" s="2"/>
@@ -8597,7 +8597,7 @@
       <c r="AK197" s="10"/>
       <c r="AL197" s="10"/>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -8637,7 +8637,7 @@
       <c r="AK198" s="10"/>
       <c r="AL198" s="10"/>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -8677,7 +8677,7 @@
       <c r="AK199" s="10"/>
       <c r="AL199" s="10"/>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -8717,7 +8717,7 @@
       <c r="AK200" s="10"/>
       <c r="AL200" s="10"/>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="4"/>
       <c r="C201" s="2"/>
@@ -8757,7 +8757,7 @@
       <c r="AK201" s="10"/>
       <c r="AL201" s="10"/>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -8797,7 +8797,7 @@
       <c r="AK202" s="10"/>
       <c r="AL202" s="10"/>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8837,7 +8837,7 @@
       <c r="AK203" s="10"/>
       <c r="AL203" s="10"/>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8877,7 +8877,7 @@
       <c r="AK204" s="10"/>
       <c r="AL204" s="10"/>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="4"/>
       <c r="C205" s="2"/>
@@ -8917,7 +8917,7 @@
       <c r="AK205" s="10"/>
       <c r="AL205" s="10"/>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -8957,7 +8957,7 @@
       <c r="AK206" s="10"/>
       <c r="AL206" s="10"/>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -8997,7 +8997,7 @@
       <c r="AK207" s="10"/>
       <c r="AL207" s="10"/>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -9037,7 +9037,7 @@
       <c r="AK208" s="10"/>
       <c r="AL208" s="10"/>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="4"/>
       <c r="C209" s="2"/>
@@ -9077,7 +9077,7 @@
       <c r="AK209" s="10"/>
       <c r="AL209" s="10"/>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -9117,7 +9117,7 @@
       <c r="AK210" s="10"/>
       <c r="AL210" s="10"/>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -9157,7 +9157,7 @@
       <c r="AK211" s="10"/>
       <c r="AL211" s="10"/>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -9197,7 +9197,7 @@
       <c r="AK212" s="10"/>
       <c r="AL212" s="10"/>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="4"/>
       <c r="C213" s="2"/>
@@ -9237,7 +9237,7 @@
       <c r="AK213" s="10"/>
       <c r="AL213" s="10"/>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -9277,7 +9277,7 @@
       <c r="AK214" s="10"/>
       <c r="AL214" s="10"/>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -9317,7 +9317,7 @@
       <c r="AK215" s="10"/>
       <c r="AL215" s="10"/>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -9357,7 +9357,7 @@
       <c r="AK216" s="10"/>
       <c r="AL216" s="10"/>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="4"/>
       <c r="C217" s="2"/>
@@ -9397,7 +9397,7 @@
       <c r="AK217" s="10"/>
       <c r="AL217" s="10"/>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -9437,7 +9437,7 @@
       <c r="AK218" s="10"/>
       <c r="AL218" s="10"/>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -9477,7 +9477,7 @@
       <c r="AK219" s="10"/>
       <c r="AL219" s="10"/>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -9517,7 +9517,7 @@
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="4"/>
       <c r="C221" s="2"/>
@@ -9557,7 +9557,7 @@
       <c r="AK221" s="10"/>
       <c r="AL221" s="10"/>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -9597,7 +9597,7 @@
       <c r="AK222" s="10"/>
       <c r="AL222" s="10"/>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -9637,7 +9637,7 @@
       <c r="AK223" s="10"/>
       <c r="AL223" s="10"/>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -9677,7 +9677,7 @@
       <c r="AK224" s="10"/>
       <c r="AL224" s="10"/>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="4"/>
       <c r="C225" s="2"/>
@@ -9717,7 +9717,7 @@
       <c r="AK225" s="10"/>
       <c r="AL225" s="10"/>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -9757,7 +9757,7 @@
       <c r="AK226" s="10"/>
       <c r="AL226" s="10"/>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -9797,7 +9797,7 @@
       <c r="AK227" s="10"/>
       <c r="AL227" s="10"/>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -9837,7 +9837,7 @@
       <c r="AK228" s="10"/>
       <c r="AL228" s="10"/>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="4"/>
       <c r="C229" s="2"/>
@@ -9877,7 +9877,7 @@
       <c r="AK229" s="10"/>
       <c r="AL229" s="10"/>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -9917,7 +9917,7 @@
       <c r="AK230" s="10"/>
       <c r="AL230" s="10"/>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -9957,7 +9957,7 @@
       <c r="AK231" s="10"/>
       <c r="AL231" s="10"/>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -9997,7 +9997,7 @@
       <c r="AK232" s="10"/>
       <c r="AL232" s="10"/>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="4"/>
       <c r="C233" s="2"/>
@@ -10037,7 +10037,7 @@
       <c r="AK233" s="10"/>
       <c r="AL233" s="10"/>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -10077,7 +10077,7 @@
       <c r="AK234" s="10"/>
       <c r="AL234" s="10"/>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -10117,7 +10117,7 @@
       <c r="AK235" s="10"/>
       <c r="AL235" s="10"/>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -10157,7 +10157,7 @@
       <c r="AK236" s="10"/>
       <c r="AL236" s="10"/>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="4"/>
       <c r="C237" s="2"/>
@@ -10197,7 +10197,7 @@
       <c r="AK237" s="10"/>
       <c r="AL237" s="10"/>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -10237,7 +10237,7 @@
       <c r="AK238" s="10"/>
       <c r="AL238" s="10"/>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -10277,7 +10277,7 @@
       <c r="AK239" s="10"/>
       <c r="AL239" s="10"/>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -10317,7 +10317,7 @@
       <c r="AK240" s="10"/>
       <c r="AL240" s="10"/>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="4"/>
       <c r="C241" s="2"/>
@@ -10357,7 +10357,7 @@
       <c r="AK241" s="10"/>
       <c r="AL241" s="10"/>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -10397,7 +10397,7 @@
       <c r="AK242" s="10"/>
       <c r="AL242" s="10"/>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -10437,7 +10437,7 @@
       <c r="AK243" s="10"/>
       <c r="AL243" s="10"/>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -10477,7 +10477,7 @@
       <c r="AK244" s="10"/>
       <c r="AL244" s="10"/>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="4"/>
       <c r="C245" s="2"/>
@@ -10517,7 +10517,7 @@
       <c r="AK245" s="10"/>
       <c r="AL245" s="10"/>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -10557,7 +10557,7 @@
       <c r="AK246" s="10"/>
       <c r="AL246" s="10"/>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -10597,7 +10597,7 @@
       <c r="AK247" s="10"/>
       <c r="AL247" s="10"/>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -10637,7 +10637,7 @@
       <c r="AK248" s="10"/>
       <c r="AL248" s="10"/>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="4"/>
       <c r="C249" s="2"/>
@@ -10677,7 +10677,7 @@
       <c r="AK249" s="10"/>
       <c r="AL249" s="10"/>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -10717,7 +10717,7 @@
       <c r="AK250" s="10"/>
       <c r="AL250" s="10"/>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -10757,7 +10757,7 @@
       <c r="AK251" s="10"/>
       <c r="AL251" s="10"/>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -10797,7 +10797,7 @@
       <c r="AK252" s="10"/>
       <c r="AL252" s="10"/>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="4"/>
       <c r="C253" s="2"/>
@@ -10837,7 +10837,7 @@
       <c r="AK253" s="10"/>
       <c r="AL253" s="10"/>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -10877,7 +10877,7 @@
       <c r="AK254" s="10"/>
       <c r="AL254" s="10"/>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -10917,7 +10917,7 @@
       <c r="AK255" s="10"/>
       <c r="AL255" s="10"/>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -10957,7 +10957,7 @@
       <c r="AK256" s="10"/>
       <c r="AL256" s="10"/>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="4"/>
       <c r="C257" s="2"/>
@@ -10997,7 +10997,7 @@
       <c r="AK257" s="10"/>
       <c r="AL257" s="10"/>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -11037,7 +11037,7 @@
       <c r="AK258" s="10"/>
       <c r="AL258" s="10"/>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -11077,7 +11077,7 @@
       <c r="AK259" s="10"/>
       <c r="AL259" s="10"/>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -11140,7 +11140,7 @@
       <selection activeCell="L255" sqref="L255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11157,7 +11157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/src/assets/farmer-import/Template_list of farmers_NEW.xlsx
+++ b/src/assets/farmer-import/Template_list of farmers_NEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpaspalovski/IntellijProjects/inatrace/inatrace-fe/src/assets/farmer-import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA0E02-6116-994D-B698-073674D4EC32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657AFD19-E069-1245-8E26-B400E0E1B0AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>List of farmers</t>
   </si>
@@ -145,17 +145,125 @@
     </r>
   </si>
   <si>
-    <t>Area cultivated with plant</t>
+    <t>A1</t>
   </si>
   <si>
-    <t>Number of plants</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>L-PT-1-1</t>
+  </si>
+  <si>
+    <t>L-PT-1-2</t>
+  </si>
+  <si>
+    <t>L-PT-2-1</t>
+  </si>
+  <si>
+    <t>L-PT-2-2</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>Area cultivated with coffee</t>
+  </si>
+  <si>
+    <t>Number of coffee plants</t>
+  </si>
+  <si>
+    <t>Area cultivated with macadamia</t>
+  </si>
+  <si>
+    <t>Number of macadamia plants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +319,6 @@
       <u/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -362,24 +462,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -742,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL260"/>
+  <dimension ref="A1:AN260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="U2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -763,35 +864,35 @@
     <col min="19" max="19" width="18.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.83203125" style="1" customWidth="1"/>
     <col min="21" max="22" width="26.5" style="1" customWidth="1"/>
-    <col min="23" max="27" width="18.33203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="26" customWidth="1"/>
-    <col min="30" max="30" width="21.1640625" customWidth="1"/>
-    <col min="31" max="31" width="25.5" customWidth="1"/>
-    <col min="32" max="32" width="22.6640625" customWidth="1"/>
+    <col min="23" max="29" width="18.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26" customWidth="1"/>
+    <col min="32" max="32" width="21.1640625" customWidth="1"/>
+    <col min="33" max="33" width="25.5" customWidth="1"/>
+    <col min="34" max="34" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="O1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:38" ht="26" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+    <row r="2" spans="1:40" ht="26" x14ac:dyDescent="0.25">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -803,121 +904,232 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="O3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="D4" s="16"/>
-      <c r="O4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:38" s="26" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+    </row>
+    <row r="5" spans="1:40" s="25" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="22" t="s">
-        <v>31</v>
+      <c r="X5" s="21" t="s">
+        <v>65</v>
       </c>
-      <c r="Y5" s="22" t="s">
-        <v>32</v>
+      <c r="Y5" s="21" t="s">
+        <v>66</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AC5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="22" t="s">
+      <c r="AD5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="24" t="s">
+      <c r="AE5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AF5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="24" t="s">
+      <c r="AG5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="24" t="s">
+      <c r="AH5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -934,8 +1146,8 @@
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -945,19 +1157,21 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="18"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -986,18 +1200,20 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="12"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
       <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1026,18 +1242,20 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
       <c r="AL8" s="10"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1066,18 +1284,20 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="12"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
       <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1106,18 +1326,20 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="12"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
       <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1146,18 +1368,20 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="12"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
       <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1186,18 +1410,20 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="12"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
       <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1226,18 +1452,20 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1266,18 +1494,20 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="12"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1306,18 +1536,20 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="12"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
       <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
       <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1346,18 +1578,20 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
       <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -1386,18 +1620,20 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="12"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
       <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
       <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1426,18 +1662,20 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1466,18 +1704,20 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="12"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
       <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1506,18 +1746,20 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="12"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
       <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -1546,18 +1788,20 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="11"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1586,18 +1830,20 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="12"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
       <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1626,18 +1872,20 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="12"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
       <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1666,18 +1914,20 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="12"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
       <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -1706,18 +1956,20 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="12"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
       <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1746,18 +1998,20 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="12"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
       <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
       <c r="AI26" s="10"/>
       <c r="AJ26" s="10"/>
       <c r="AK26" s="10"/>
       <c r="AL26" s="10"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1786,18 +2040,20 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="12"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
       <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
       <c r="AI27" s="10"/>
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1826,18 +2082,20 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
       <c r="AI28" s="10"/>
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
@@ -1866,18 +2124,20 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
       <c r="AE29" s="11"/>
       <c r="AF29" s="11"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
       <c r="AI29" s="10"/>
       <c r="AJ29" s="10"/>
       <c r="AK29" s="10"/>
       <c r="AL29" s="10"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1906,18 +2166,20 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
       <c r="AE30" s="11"/>
       <c r="AF30" s="11"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="10"/>
       <c r="AK30" s="10"/>
       <c r="AL30" s="10"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1946,18 +2208,20 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
       <c r="AE31" s="11"/>
       <c r="AF31" s="11"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
       <c r="AI31" s="10"/>
       <c r="AJ31" s="10"/>
       <c r="AK31" s="10"/>
       <c r="AL31" s="10"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1986,18 +2250,20 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="12"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
       <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
       <c r="AI32" s="10"/>
       <c r="AJ32" s="10"/>
       <c r="AK32" s="10"/>
       <c r="AL32" s="10"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
@@ -2026,18 +2292,20 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="11"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
       <c r="AI33" s="10"/>
       <c r="AJ33" s="10"/>
       <c r="AK33" s="10"/>
       <c r="AL33" s="10"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2066,18 +2334,20 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="12"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
       <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
       <c r="AI34" s="10"/>
       <c r="AJ34" s="10"/>
       <c r="AK34" s="10"/>
       <c r="AL34" s="10"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2106,18 +2376,20 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="12"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
       <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
       <c r="AI35" s="10"/>
       <c r="AJ35" s="10"/>
       <c r="AK35" s="10"/>
       <c r="AL35" s="10"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2146,18 +2418,20 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="11"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
       <c r="AI36" s="10"/>
       <c r="AJ36" s="10"/>
       <c r="AK36" s="10"/>
       <c r="AL36" s="10"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
@@ -2186,18 +2460,20 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="15"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="11"/>
       <c r="AI37" s="10"/>
       <c r="AJ37" s="10"/>
       <c r="AK37" s="10"/>
       <c r="AL37" s="10"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2226,18 +2502,20 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="12"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
       <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
       <c r="AI38" s="10"/>
       <c r="AJ38" s="10"/>
       <c r="AK38" s="10"/>
       <c r="AL38" s="10"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2266,18 +2544,20 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="11"/>
-      <c r="AD39" s="11"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
       <c r="AI39" s="10"/>
       <c r="AJ39" s="10"/>
       <c r="AK39" s="10"/>
       <c r="AL39" s="10"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2306,18 +2586,20 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
       <c r="AI40" s="10"/>
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
       <c r="AL40" s="10"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
@@ -2346,18 +2628,20 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="11"/>
-      <c r="AD41" s="12"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
       <c r="AE41" s="11"/>
-      <c r="AF41" s="11"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
       <c r="AI41" s="10"/>
       <c r="AJ41" s="10"/>
       <c r="AK41" s="10"/>
       <c r="AL41" s="10"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2386,18 +2670,20 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="12"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
       <c r="AE42" s="11"/>
-      <c r="AF42" s="11"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
       <c r="AI42" s="10"/>
       <c r="AJ42" s="10"/>
       <c r="AK42" s="10"/>
       <c r="AL42" s="10"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2426,18 +2712,20 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
       <c r="AI43" s="10"/>
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
       <c r="AL43" s="10"/>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2466,18 +2754,20 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="12"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
       <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
       <c r="AI44" s="10"/>
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
       <c r="AL44" s="10"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
@@ -2506,18 +2796,20 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="12"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
       <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
       <c r="AI45" s="10"/>
       <c r="AJ45" s="10"/>
       <c r="AK45" s="10"/>
       <c r="AL45" s="10"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2546,18 +2838,20 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="12"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
       <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
       <c r="AI46" s="10"/>
       <c r="AJ46" s="10"/>
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="10"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2586,18 +2880,20 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="12"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
       <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="10"/>
       <c r="AK47" s="10"/>
       <c r="AL47" s="10"/>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2626,18 +2922,20 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="12"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
       <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
       <c r="AI48" s="10"/>
       <c r="AJ48" s="10"/>
       <c r="AK48" s="10"/>
       <c r="AL48" s="10"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
@@ -2666,18 +2964,20 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="12"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
       <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
       <c r="AI49" s="10"/>
       <c r="AJ49" s="10"/>
       <c r="AK49" s="10"/>
       <c r="AL49" s="10"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2706,18 +3006,20 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="12"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
       <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
       <c r="AI50" s="10"/>
       <c r="AJ50" s="10"/>
       <c r="AK50" s="10"/>
       <c r="AL50" s="10"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2746,18 +3048,20 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
       <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
-      <c r="AG51" s="10"/>
-      <c r="AH51" s="10"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
       <c r="AI51" s="10"/>
       <c r="AJ51" s="10"/>
       <c r="AK51" s="10"/>
       <c r="AL51" s="10"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2786,18 +3090,20 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="12"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
       <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="10"/>
-      <c r="AH52" s="10"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
       <c r="AI52" s="10"/>
       <c r="AJ52" s="10"/>
       <c r="AK52" s="10"/>
       <c r="AL52" s="10"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>
@@ -2826,18 +3132,20 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
-      <c r="AG53" s="10"/>
-      <c r="AH53" s="10"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
       <c r="AL53" s="10"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2866,18 +3174,20 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="12"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
       <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
       <c r="AI54" s="10"/>
       <c r="AJ54" s="10"/>
       <c r="AK54" s="10"/>
       <c r="AL54" s="10"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="10"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2906,18 +3216,20 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="12"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
       <c r="AE55" s="11"/>
-      <c r="AF55" s="11"/>
-      <c r="AG55" s="10"/>
-      <c r="AH55" s="10"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
       <c r="AI55" s="10"/>
       <c r="AJ55" s="10"/>
       <c r="AK55" s="10"/>
       <c r="AL55" s="10"/>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="10"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2946,18 +3258,20 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="12"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
       <c r="AE56" s="11"/>
-      <c r="AF56" s="11"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="10"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
       <c r="AI56" s="10"/>
       <c r="AJ56" s="10"/>
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
       <c r="C57" s="2"/>
@@ -2986,18 +3300,20 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="12"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
       <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="10"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
       <c r="AI57" s="10"/>
       <c r="AJ57" s="10"/>
       <c r="AK57" s="10"/>
       <c r="AL57" s="10"/>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3026,18 +3342,20 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="12"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
       <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
       <c r="AI58" s="10"/>
       <c r="AJ58" s="10"/>
       <c r="AK58" s="10"/>
       <c r="AL58" s="10"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3066,18 +3384,20 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
       <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
-      <c r="AG59" s="10"/>
-      <c r="AH59" s="10"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
       <c r="AI59" s="10"/>
       <c r="AJ59" s="10"/>
       <c r="AK59" s="10"/>
       <c r="AL59" s="10"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="10"/>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3106,18 +3426,20 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
       <c r="AE60" s="11"/>
       <c r="AF60" s="11"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="10"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
       <c r="AI60" s="10"/>
       <c r="AJ60" s="10"/>
       <c r="AK60" s="10"/>
       <c r="AL60" s="10"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
@@ -3146,18 +3468,20 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
-      <c r="AC61" s="11"/>
-      <c r="AD61" s="12"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
       <c r="AE61" s="11"/>
-      <c r="AF61" s="11"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="10"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
       <c r="AI61" s="10"/>
       <c r="AJ61" s="10"/>
       <c r="AK61" s="10"/>
       <c r="AL61" s="10"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="10"/>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3186,18 +3510,20 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="12"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
       <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
-      <c r="AG62" s="10"/>
-      <c r="AH62" s="10"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
       <c r="AI62" s="10"/>
       <c r="AJ62" s="10"/>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM62" s="10"/>
+      <c r="AN62" s="10"/>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3226,18 +3552,20 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="12"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
       <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="10"/>
-      <c r="AH63" s="10"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
       <c r="AI63" s="10"/>
       <c r="AJ63" s="10"/>
       <c r="AK63" s="10"/>
       <c r="AL63" s="10"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="10"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3266,18 +3594,20 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="12"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
       <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="10"/>
-      <c r="AH64" s="10"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
       <c r="AI64" s="10"/>
       <c r="AJ64" s="10"/>
       <c r="AK64" s="10"/>
       <c r="AL64" s="10"/>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="10"/>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="4"/>
       <c r="C65" s="2"/>
@@ -3306,18 +3636,20 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="12"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
       <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
-      <c r="AG65" s="10"/>
-      <c r="AH65" s="10"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
       <c r="AI65" s="10"/>
       <c r="AJ65" s="10"/>
       <c r="AK65" s="10"/>
       <c r="AL65" s="10"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="10"/>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3346,18 +3678,20 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="12"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
       <c r="AE66" s="11"/>
-      <c r="AF66" s="11"/>
-      <c r="AG66" s="10"/>
-      <c r="AH66" s="10"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
       <c r="AI66" s="10"/>
       <c r="AJ66" s="10"/>
       <c r="AK66" s="10"/>
       <c r="AL66" s="10"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="10"/>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3386,18 +3720,20 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="12"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
       <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="10"/>
-      <c r="AH67" s="10"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
       <c r="AI67" s="10"/>
       <c r="AJ67" s="10"/>
       <c r="AK67" s="10"/>
       <c r="AL67" s="10"/>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3426,18 +3762,20 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
-      <c r="AC68" s="11"/>
-      <c r="AD68" s="12"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
       <c r="AE68" s="11"/>
-      <c r="AF68" s="11"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
       <c r="AI68" s="10"/>
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="10"/>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="10"/>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="2"/>
@@ -3466,18 +3804,20 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="12"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
       <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
-      <c r="AG69" s="10"/>
-      <c r="AH69" s="10"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
       <c r="AI69" s="10"/>
       <c r="AJ69" s="10"/>
       <c r="AK69" s="10"/>
       <c r="AL69" s="10"/>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3506,18 +3846,20 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
-      <c r="AC70" s="11"/>
-      <c r="AD70" s="12"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
       <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
-      <c r="AG70" s="10"/>
-      <c r="AH70" s="10"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="11"/>
+      <c r="AH70" s="11"/>
       <c r="AI70" s="10"/>
       <c r="AJ70" s="10"/>
       <c r="AK70" s="10"/>
       <c r="AL70" s="10"/>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="10"/>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3546,18 +3888,20 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
-      <c r="AC71" s="11"/>
-      <c r="AD71" s="12"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
       <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
-      <c r="AG71" s="10"/>
-      <c r="AH71" s="10"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
       <c r="AI71" s="10"/>
       <c r="AJ71" s="10"/>
       <c r="AK71" s="10"/>
       <c r="AL71" s="10"/>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3586,18 +3930,20 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
-      <c r="AC72" s="11"/>
-      <c r="AD72" s="12"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
       <c r="AE72" s="11"/>
-      <c r="AF72" s="11"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="10"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
       <c r="AI72" s="10"/>
       <c r="AJ72" s="10"/>
       <c r="AK72" s="10"/>
       <c r="AL72" s="10"/>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM72" s="10"/>
+      <c r="AN72" s="10"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4"/>
       <c r="C73" s="2"/>
@@ -3626,18 +3972,20 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="12"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
       <c r="AE73" s="11"/>
-      <c r="AF73" s="11"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="10"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
       <c r="AI73" s="10"/>
       <c r="AJ73" s="10"/>
       <c r="AK73" s="10"/>
       <c r="AL73" s="10"/>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="10"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3666,18 +4014,20 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
       <c r="AE74" s="11"/>
       <c r="AF74" s="11"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
       <c r="AI74" s="10"/>
       <c r="AJ74" s="10"/>
       <c r="AK74" s="10"/>
       <c r="AL74" s="10"/>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="10"/>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3706,18 +4056,20 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="12"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
       <c r="AE75" s="11"/>
-      <c r="AF75" s="11"/>
-      <c r="AG75" s="10"/>
-      <c r="AH75" s="10"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11"/>
       <c r="AI75" s="10"/>
       <c r="AJ75" s="10"/>
       <c r="AK75" s="10"/>
       <c r="AL75" s="10"/>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="10"/>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3746,18 +4098,20 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
-      <c r="AC76" s="11"/>
-      <c r="AD76" s="12"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
       <c r="AE76" s="11"/>
-      <c r="AF76" s="11"/>
-      <c r="AG76" s="10"/>
-      <c r="AH76" s="10"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="11"/>
+      <c r="AH76" s="11"/>
       <c r="AI76" s="10"/>
       <c r="AJ76" s="10"/>
       <c r="AK76" s="10"/>
       <c r="AL76" s="10"/>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="10"/>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
       <c r="C77" s="2"/>
@@ -3786,18 +4140,20 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
-      <c r="AC77" s="11"/>
-      <c r="AD77" s="12"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
       <c r="AE77" s="11"/>
-      <c r="AF77" s="11"/>
-      <c r="AG77" s="10"/>
-      <c r="AH77" s="10"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="11"/>
       <c r="AI77" s="10"/>
       <c r="AJ77" s="10"/>
       <c r="AK77" s="10"/>
       <c r="AL77" s="10"/>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM77" s="10"/>
+      <c r="AN77" s="10"/>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3826,18 +4182,20 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
       <c r="AE78" s="11"/>
       <c r="AF78" s="11"/>
-      <c r="AG78" s="10"/>
-      <c r="AH78" s="10"/>
+      <c r="AG78" s="11"/>
+      <c r="AH78" s="11"/>
       <c r="AI78" s="10"/>
       <c r="AJ78" s="10"/>
       <c r="AK78" s="10"/>
       <c r="AL78" s="10"/>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM78" s="10"/>
+      <c r="AN78" s="10"/>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3866,18 +4224,20 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
-      <c r="AC79" s="11"/>
-      <c r="AD79" s="12"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
       <c r="AE79" s="11"/>
-      <c r="AF79" s="11"/>
-      <c r="AG79" s="10"/>
-      <c r="AH79" s="10"/>
+      <c r="AF79" s="12"/>
+      <c r="AG79" s="11"/>
+      <c r="AH79" s="11"/>
       <c r="AI79" s="10"/>
       <c r="AJ79" s="10"/>
       <c r="AK79" s="10"/>
       <c r="AL79" s="10"/>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM79" s="10"/>
+      <c r="AN79" s="10"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3906,18 +4266,20 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
-      <c r="AC80" s="11"/>
-      <c r="AD80" s="12"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
       <c r="AE80" s="11"/>
-      <c r="AF80" s="11"/>
-      <c r="AG80" s="10"/>
-      <c r="AH80" s="10"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="11"/>
+      <c r="AH80" s="11"/>
       <c r="AI80" s="10"/>
       <c r="AJ80" s="10"/>
       <c r="AK80" s="10"/>
       <c r="AL80" s="10"/>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM80" s="10"/>
+      <c r="AN80" s="10"/>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
@@ -3946,18 +4308,20 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
-      <c r="AC81" s="11"/>
-      <c r="AD81" s="12"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
       <c r="AE81" s="11"/>
-      <c r="AF81" s="11"/>
-      <c r="AG81" s="10"/>
-      <c r="AH81" s="10"/>
+      <c r="AF81" s="12"/>
+      <c r="AG81" s="11"/>
+      <c r="AH81" s="11"/>
       <c r="AI81" s="10"/>
       <c r="AJ81" s="10"/>
       <c r="AK81" s="10"/>
       <c r="AL81" s="10"/>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM81" s="10"/>
+      <c r="AN81" s="10"/>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3986,18 +4350,20 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
-      <c r="AC82" s="11"/>
-      <c r="AD82" s="12"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
       <c r="AE82" s="11"/>
-      <c r="AF82" s="11"/>
-      <c r="AG82" s="10"/>
-      <c r="AH82" s="10"/>
+      <c r="AF82" s="12"/>
+      <c r="AG82" s="11"/>
+      <c r="AH82" s="11"/>
       <c r="AI82" s="10"/>
       <c r="AJ82" s="10"/>
       <c r="AK82" s="10"/>
       <c r="AL82" s="10"/>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM82" s="10"/>
+      <c r="AN82" s="10"/>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4026,18 +4392,20 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
-      <c r="AC83" s="11"/>
-      <c r="AD83" s="12"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
       <c r="AE83" s="11"/>
-      <c r="AF83" s="11"/>
-      <c r="AG83" s="10"/>
-      <c r="AH83" s="10"/>
+      <c r="AF83" s="12"/>
+      <c r="AG83" s="11"/>
+      <c r="AH83" s="11"/>
       <c r="AI83" s="10"/>
       <c r="AJ83" s="10"/>
       <c r="AK83" s="10"/>
       <c r="AL83" s="10"/>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM83" s="10"/>
+      <c r="AN83" s="10"/>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4066,18 +4434,20 @@
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
-      <c r="AC84" s="11"/>
-      <c r="AD84" s="11"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
       <c r="AE84" s="11"/>
       <c r="AF84" s="11"/>
-      <c r="AG84" s="10"/>
-      <c r="AH84" s="10"/>
+      <c r="AG84" s="11"/>
+      <c r="AH84" s="11"/>
       <c r="AI84" s="10"/>
       <c r="AJ84" s="10"/>
       <c r="AK84" s="10"/>
       <c r="AL84" s="10"/>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM84" s="10"/>
+      <c r="AN84" s="10"/>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
@@ -4106,18 +4476,20 @@
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
-      <c r="AC85" s="11"/>
-      <c r="AD85" s="11"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
       <c r="AE85" s="11"/>
       <c r="AF85" s="11"/>
-      <c r="AG85" s="10"/>
-      <c r="AH85" s="10"/>
+      <c r="AG85" s="11"/>
+      <c r="AH85" s="11"/>
       <c r="AI85" s="10"/>
       <c r="AJ85" s="10"/>
       <c r="AK85" s="10"/>
       <c r="AL85" s="10"/>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM85" s="10"/>
+      <c r="AN85" s="10"/>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4146,18 +4518,20 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
-      <c r="AC86" s="11"/>
-      <c r="AD86" s="11"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
       <c r="AE86" s="11"/>
       <c r="AF86" s="11"/>
-      <c r="AG86" s="10"/>
-      <c r="AH86" s="10"/>
+      <c r="AG86" s="11"/>
+      <c r="AH86" s="11"/>
       <c r="AI86" s="10"/>
       <c r="AJ86" s="10"/>
       <c r="AK86" s="10"/>
       <c r="AL86" s="10"/>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM86" s="10"/>
+      <c r="AN86" s="10"/>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4186,18 +4560,20 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
-      <c r="AC87" s="11"/>
-      <c r="AD87" s="12"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
       <c r="AE87" s="11"/>
-      <c r="AF87" s="11"/>
-      <c r="AG87" s="10"/>
-      <c r="AH87" s="10"/>
+      <c r="AF87" s="12"/>
+      <c r="AG87" s="11"/>
+      <c r="AH87" s="11"/>
       <c r="AI87" s="10"/>
       <c r="AJ87" s="10"/>
       <c r="AK87" s="10"/>
       <c r="AL87" s="10"/>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM87" s="10"/>
+      <c r="AN87" s="10"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4226,18 +4602,20 @@
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
-      <c r="AC88" s="11"/>
-      <c r="AD88" s="12"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
       <c r="AE88" s="11"/>
-      <c r="AF88" s="11"/>
-      <c r="AG88" s="10"/>
-      <c r="AH88" s="10"/>
+      <c r="AF88" s="12"/>
+      <c r="AG88" s="11"/>
+      <c r="AH88" s="11"/>
       <c r="AI88" s="10"/>
       <c r="AJ88" s="10"/>
       <c r="AK88" s="10"/>
       <c r="AL88" s="10"/>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM88" s="10"/>
+      <c r="AN88" s="10"/>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
@@ -4266,18 +4644,20 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
-      <c r="AC89" s="11"/>
-      <c r="AD89" s="12"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
       <c r="AE89" s="11"/>
-      <c r="AF89" s="11"/>
-      <c r="AG89" s="10"/>
-      <c r="AH89" s="10"/>
+      <c r="AF89" s="12"/>
+      <c r="AG89" s="11"/>
+      <c r="AH89" s="11"/>
       <c r="AI89" s="10"/>
       <c r="AJ89" s="10"/>
       <c r="AK89" s="10"/>
       <c r="AL89" s="10"/>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM89" s="10"/>
+      <c r="AN89" s="10"/>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4306,18 +4686,20 @@
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
-      <c r="AC90" s="11"/>
-      <c r="AD90" s="12"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
       <c r="AE90" s="11"/>
-      <c r="AF90" s="11"/>
-      <c r="AG90" s="10"/>
-      <c r="AH90" s="10"/>
+      <c r="AF90" s="12"/>
+      <c r="AG90" s="11"/>
+      <c r="AH90" s="11"/>
       <c r="AI90" s="10"/>
       <c r="AJ90" s="10"/>
       <c r="AK90" s="10"/>
       <c r="AL90" s="10"/>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM90" s="10"/>
+      <c r="AN90" s="10"/>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4346,18 +4728,20 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
-      <c r="AC91" s="11"/>
-      <c r="AD91" s="12"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
       <c r="AE91" s="11"/>
-      <c r="AF91" s="11"/>
-      <c r="AG91" s="10"/>
-      <c r="AH91" s="10"/>
+      <c r="AF91" s="12"/>
+      <c r="AG91" s="11"/>
+      <c r="AH91" s="11"/>
       <c r="AI91" s="10"/>
       <c r="AJ91" s="10"/>
       <c r="AK91" s="10"/>
       <c r="AL91" s="10"/>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM91" s="10"/>
+      <c r="AN91" s="10"/>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4386,18 +4770,20 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
-      <c r="AC92" s="11"/>
-      <c r="AD92" s="11"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
       <c r="AE92" s="11"/>
       <c r="AF92" s="11"/>
-      <c r="AG92" s="10"/>
-      <c r="AH92" s="10"/>
+      <c r="AG92" s="11"/>
+      <c r="AH92" s="11"/>
       <c r="AI92" s="10"/>
       <c r="AJ92" s="10"/>
       <c r="AK92" s="10"/>
       <c r="AL92" s="10"/>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM92" s="10"/>
+      <c r="AN92" s="10"/>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
@@ -4426,18 +4812,20 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
-      <c r="AC93" s="11"/>
-      <c r="AD93" s="12"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
       <c r="AE93" s="11"/>
-      <c r="AF93" s="11"/>
-      <c r="AG93" s="10"/>
-      <c r="AH93" s="10"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="11"/>
+      <c r="AH93" s="11"/>
       <c r="AI93" s="10"/>
       <c r="AJ93" s="10"/>
       <c r="AK93" s="10"/>
       <c r="AL93" s="10"/>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM93" s="10"/>
+      <c r="AN93" s="10"/>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4466,18 +4854,20 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
-      <c r="AC94" s="11"/>
-      <c r="AD94" s="11"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
       <c r="AE94" s="11"/>
       <c r="AF94" s="11"/>
-      <c r="AG94" s="10"/>
-      <c r="AH94" s="10"/>
+      <c r="AG94" s="11"/>
+      <c r="AH94" s="11"/>
       <c r="AI94" s="10"/>
       <c r="AJ94" s="10"/>
       <c r="AK94" s="10"/>
       <c r="AL94" s="10"/>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM94" s="10"/>
+      <c r="AN94" s="10"/>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4506,18 +4896,20 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
-      <c r="AC95" s="11"/>
-      <c r="AD95" s="12"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
       <c r="AE95" s="11"/>
-      <c r="AF95" s="11"/>
-      <c r="AG95" s="10"/>
-      <c r="AH95" s="10"/>
+      <c r="AF95" s="12"/>
+      <c r="AG95" s="11"/>
+      <c r="AH95" s="11"/>
       <c r="AI95" s="10"/>
       <c r="AJ95" s="10"/>
       <c r="AK95" s="10"/>
       <c r="AL95" s="10"/>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM95" s="10"/>
+      <c r="AN95" s="10"/>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4546,18 +4938,20 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
-      <c r="AC96" s="11"/>
-      <c r="AD96" s="12"/>
-      <c r="AE96" s="14"/>
-      <c r="AF96" s="11"/>
-      <c r="AG96" s="10"/>
-      <c r="AH96" s="10"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="11"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="14"/>
+      <c r="AH96" s="11"/>
       <c r="AI96" s="10"/>
       <c r="AJ96" s="10"/>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM96" s="10"/>
+      <c r="AN96" s="10"/>
+    </row>
+    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
@@ -4586,18 +4980,20 @@
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
-      <c r="AC97" s="11"/>
-      <c r="AD97" s="12"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
       <c r="AE97" s="11"/>
-      <c r="AF97" s="11"/>
-      <c r="AG97" s="10"/>
-      <c r="AH97" s="10"/>
+      <c r="AF97" s="12"/>
+      <c r="AG97" s="11"/>
+      <c r="AH97" s="11"/>
       <c r="AI97" s="10"/>
       <c r="AJ97" s="10"/>
       <c r="AK97" s="10"/>
       <c r="AL97" s="10"/>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM97" s="10"/>
+      <c r="AN97" s="10"/>
+    </row>
+    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4626,18 +5022,20 @@
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
-      <c r="AC98" s="11"/>
-      <c r="AD98" s="12"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
       <c r="AE98" s="11"/>
-      <c r="AF98" s="11"/>
-      <c r="AG98" s="10"/>
-      <c r="AH98" s="10"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="11"/>
+      <c r="AH98" s="11"/>
       <c r="AI98" s="10"/>
       <c r="AJ98" s="10"/>
       <c r="AK98" s="10"/>
       <c r="AL98" s="10"/>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4666,18 +5064,20 @@
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
-      <c r="AC99" s="11"/>
-      <c r="AD99" s="12"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
       <c r="AE99" s="11"/>
-      <c r="AF99" s="11"/>
-      <c r="AG99" s="10"/>
-      <c r="AH99" s="10"/>
+      <c r="AF99" s="12"/>
+      <c r="AG99" s="11"/>
+      <c r="AH99" s="11"/>
       <c r="AI99" s="10"/>
       <c r="AJ99" s="10"/>
       <c r="AK99" s="10"/>
       <c r="AL99" s="10"/>
-    </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM99" s="10"/>
+      <c r="AN99" s="10"/>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4706,18 +5106,20 @@
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
-      <c r="AC100" s="11"/>
-      <c r="AD100" s="12"/>
-      <c r="AE100" s="14"/>
-      <c r="AF100" s="11"/>
-      <c r="AG100" s="10"/>
-      <c r="AH100" s="10"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="11"/>
+      <c r="AF100" s="12"/>
+      <c r="AG100" s="14"/>
+      <c r="AH100" s="11"/>
       <c r="AI100" s="10"/>
       <c r="AJ100" s="10"/>
       <c r="AK100" s="10"/>
       <c r="AL100" s="10"/>
-    </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM100" s="10"/>
+      <c r="AN100" s="10"/>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="2"/>
@@ -4746,18 +5148,20 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
-      <c r="AC101" s="11"/>
-      <c r="AD101" s="12"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
       <c r="AE101" s="11"/>
-      <c r="AF101" s="11"/>
-      <c r="AG101" s="10"/>
-      <c r="AH101" s="10"/>
+      <c r="AF101" s="12"/>
+      <c r="AG101" s="11"/>
+      <c r="AH101" s="11"/>
       <c r="AI101" s="10"/>
       <c r="AJ101" s="10"/>
       <c r="AK101" s="10"/>
       <c r="AL101" s="10"/>
-    </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM101" s="10"/>
+      <c r="AN101" s="10"/>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4786,18 +5190,20 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
-      <c r="AC102" s="11"/>
-      <c r="AD102" s="12"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
       <c r="AE102" s="11"/>
-      <c r="AF102" s="11"/>
-      <c r="AG102" s="10"/>
-      <c r="AH102" s="10"/>
+      <c r="AF102" s="12"/>
+      <c r="AG102" s="11"/>
+      <c r="AH102" s="11"/>
       <c r="AI102" s="10"/>
       <c r="AJ102" s="10"/>
       <c r="AK102" s="10"/>
       <c r="AL102" s="10"/>
-    </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM102" s="10"/>
+      <c r="AN102" s="10"/>
+    </row>
+    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4826,18 +5232,20 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
-      <c r="AC103" s="11"/>
-      <c r="AD103" s="12"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
       <c r="AE103" s="11"/>
-      <c r="AF103" s="11"/>
-      <c r="AG103" s="10"/>
-      <c r="AH103" s="10"/>
+      <c r="AF103" s="12"/>
+      <c r="AG103" s="11"/>
+      <c r="AH103" s="11"/>
       <c r="AI103" s="10"/>
       <c r="AJ103" s="10"/>
       <c r="AK103" s="10"/>
       <c r="AL103" s="10"/>
-    </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM103" s="10"/>
+      <c r="AN103" s="10"/>
+    </row>
+    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4866,18 +5274,20 @@
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
-      <c r="AC104" s="11"/>
-      <c r="AD104" s="11"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
       <c r="AE104" s="11"/>
       <c r="AF104" s="11"/>
-      <c r="AG104" s="10"/>
-      <c r="AH104" s="10"/>
+      <c r="AG104" s="11"/>
+      <c r="AH104" s="11"/>
       <c r="AI104" s="10"/>
       <c r="AJ104" s="10"/>
       <c r="AK104" s="10"/>
       <c r="AL104" s="10"/>
-    </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM104" s="10"/>
+      <c r="AN104" s="10"/>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="2"/>
@@ -4906,18 +5316,20 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
-      <c r="AC105" s="11"/>
-      <c r="AD105" s="12"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
       <c r="AE105" s="11"/>
-      <c r="AF105" s="11"/>
-      <c r="AG105" s="10"/>
-      <c r="AH105" s="10"/>
+      <c r="AF105" s="12"/>
+      <c r="AG105" s="11"/>
+      <c r="AH105" s="11"/>
       <c r="AI105" s="10"/>
       <c r="AJ105" s="10"/>
       <c r="AK105" s="10"/>
       <c r="AL105" s="10"/>
-    </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM105" s="10"/>
+      <c r="AN105" s="10"/>
+    </row>
+    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4946,18 +5358,20 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
-      <c r="AC106" s="11"/>
-      <c r="AD106" s="11"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
       <c r="AE106" s="11"/>
       <c r="AF106" s="11"/>
-      <c r="AG106" s="10"/>
-      <c r="AH106" s="10"/>
+      <c r="AG106" s="11"/>
+      <c r="AH106" s="11"/>
       <c r="AI106" s="10"/>
       <c r="AJ106" s="10"/>
       <c r="AK106" s="10"/>
       <c r="AL106" s="10"/>
-    </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM106" s="10"/>
+      <c r="AN106" s="10"/>
+    </row>
+    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4986,18 +5400,20 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
-      <c r="AC107" s="11"/>
-      <c r="AD107" s="12"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
       <c r="AE107" s="11"/>
-      <c r="AF107" s="11"/>
-      <c r="AG107" s="10"/>
-      <c r="AH107" s="10"/>
+      <c r="AF107" s="12"/>
+      <c r="AG107" s="11"/>
+      <c r="AH107" s="11"/>
       <c r="AI107" s="10"/>
       <c r="AJ107" s="10"/>
       <c r="AK107" s="10"/>
       <c r="AL107" s="10"/>
-    </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM107" s="10"/>
+      <c r="AN107" s="10"/>
+    </row>
+    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5026,18 +5442,20 @@
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
-      <c r="AC108" s="11"/>
-      <c r="AD108" s="12"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
       <c r="AE108" s="11"/>
-      <c r="AF108" s="11"/>
-      <c r="AG108" s="10"/>
-      <c r="AH108" s="10"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="11"/>
+      <c r="AH108" s="11"/>
       <c r="AI108" s="10"/>
       <c r="AJ108" s="10"/>
       <c r="AK108" s="10"/>
       <c r="AL108" s="10"/>
-    </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM108" s="10"/>
+      <c r="AN108" s="10"/>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="2"/>
@@ -5066,18 +5484,20 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
-      <c r="AC109" s="11"/>
-      <c r="AD109" s="12"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
       <c r="AE109" s="11"/>
-      <c r="AF109" s="11"/>
-      <c r="AG109" s="10"/>
-      <c r="AH109" s="10"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="11"/>
+      <c r="AH109" s="11"/>
       <c r="AI109" s="10"/>
       <c r="AJ109" s="10"/>
       <c r="AK109" s="10"/>
       <c r="AL109" s="10"/>
-    </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM109" s="10"/>
+      <c r="AN109" s="10"/>
+    </row>
+    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5106,18 +5526,20 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
-      <c r="AC110" s="11"/>
-      <c r="AD110" s="12"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
       <c r="AE110" s="11"/>
-      <c r="AF110" s="11"/>
-      <c r="AG110" s="10"/>
-      <c r="AH110" s="10"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="11"/>
+      <c r="AH110" s="11"/>
       <c r="AI110" s="10"/>
       <c r="AJ110" s="10"/>
       <c r="AK110" s="10"/>
       <c r="AL110" s="10"/>
-    </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM110" s="10"/>
+      <c r="AN110" s="10"/>
+    </row>
+    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5146,18 +5568,20 @@
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
-      <c r="AC111" s="11"/>
-      <c r="AD111" s="12"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
       <c r="AE111" s="11"/>
-      <c r="AF111" s="11"/>
-      <c r="AG111" s="10"/>
-      <c r="AH111" s="10"/>
+      <c r="AF111" s="12"/>
+      <c r="AG111" s="11"/>
+      <c r="AH111" s="11"/>
       <c r="AI111" s="10"/>
       <c r="AJ111" s="10"/>
       <c r="AK111" s="10"/>
       <c r="AL111" s="10"/>
-    </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM111" s="10"/>
+      <c r="AN111" s="10"/>
+    </row>
+    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5186,18 +5610,20 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
-      <c r="AC112" s="11"/>
-      <c r="AD112" s="12"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
       <c r="AE112" s="11"/>
-      <c r="AF112" s="11"/>
-      <c r="AG112" s="10"/>
-      <c r="AH112" s="10"/>
+      <c r="AF112" s="12"/>
+      <c r="AG112" s="11"/>
+      <c r="AH112" s="11"/>
       <c r="AI112" s="10"/>
       <c r="AJ112" s="10"/>
       <c r="AK112" s="10"/>
       <c r="AL112" s="10"/>
-    </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM112" s="10"/>
+      <c r="AN112" s="10"/>
+    </row>
+    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="2"/>
@@ -5226,18 +5652,20 @@
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
-      <c r="AC113" s="11"/>
-      <c r="AD113" s="12"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
       <c r="AE113" s="11"/>
-      <c r="AF113" s="11"/>
-      <c r="AG113" s="10"/>
-      <c r="AH113" s="10"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="11"/>
+      <c r="AH113" s="11"/>
       <c r="AI113" s="10"/>
       <c r="AJ113" s="10"/>
       <c r="AK113" s="10"/>
       <c r="AL113" s="10"/>
-    </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM113" s="10"/>
+      <c r="AN113" s="10"/>
+    </row>
+    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5266,18 +5694,20 @@
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
-      <c r="AC114" s="11"/>
-      <c r="AD114" s="11"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
       <c r="AE114" s="11"/>
       <c r="AF114" s="11"/>
-      <c r="AG114" s="10"/>
-      <c r="AH114" s="10"/>
+      <c r="AG114" s="11"/>
+      <c r="AH114" s="11"/>
       <c r="AI114" s="10"/>
       <c r="AJ114" s="10"/>
       <c r="AK114" s="10"/>
       <c r="AL114" s="10"/>
-    </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM114" s="10"/>
+      <c r="AN114" s="10"/>
+    </row>
+    <row r="115" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5306,18 +5736,20 @@
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
-      <c r="AC115" s="11"/>
-      <c r="AD115" s="11"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
       <c r="AE115" s="11"/>
       <c r="AF115" s="11"/>
-      <c r="AG115" s="10"/>
-      <c r="AH115" s="10"/>
+      <c r="AG115" s="11"/>
+      <c r="AH115" s="11"/>
       <c r="AI115" s="10"/>
       <c r="AJ115" s="10"/>
       <c r="AK115" s="10"/>
       <c r="AL115" s="10"/>
-    </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM115" s="10"/>
+      <c r="AN115" s="10"/>
+    </row>
+    <row r="116" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5346,18 +5778,20 @@
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
-      <c r="AC116" s="11"/>
-      <c r="AD116" s="12"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
       <c r="AE116" s="11"/>
-      <c r="AF116" s="11"/>
-      <c r="AG116" s="10"/>
-      <c r="AH116" s="10"/>
+      <c r="AF116" s="12"/>
+      <c r="AG116" s="11"/>
+      <c r="AH116" s="11"/>
       <c r="AI116" s="10"/>
       <c r="AJ116" s="10"/>
       <c r="AK116" s="10"/>
       <c r="AL116" s="10"/>
-    </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM116" s="10"/>
+      <c r="AN116" s="10"/>
+    </row>
+    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="2"/>
@@ -5386,18 +5820,20 @@
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
-      <c r="AC117" s="11"/>
-      <c r="AD117" s="12"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
       <c r="AE117" s="11"/>
-      <c r="AF117" s="11"/>
-      <c r="AG117" s="10"/>
-      <c r="AH117" s="10"/>
+      <c r="AF117" s="12"/>
+      <c r="AG117" s="11"/>
+      <c r="AH117" s="11"/>
       <c r="AI117" s="10"/>
       <c r="AJ117" s="10"/>
       <c r="AK117" s="10"/>
       <c r="AL117" s="10"/>
-    </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM117" s="10"/>
+      <c r="AN117" s="10"/>
+    </row>
+    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5426,18 +5862,20 @@
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
-      <c r="AC118" s="11"/>
-      <c r="AD118" s="12"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
       <c r="AE118" s="11"/>
-      <c r="AF118" s="11"/>
-      <c r="AG118" s="10"/>
-      <c r="AH118" s="10"/>
+      <c r="AF118" s="12"/>
+      <c r="AG118" s="11"/>
+      <c r="AH118" s="11"/>
       <c r="AI118" s="10"/>
       <c r="AJ118" s="10"/>
       <c r="AK118" s="10"/>
       <c r="AL118" s="10"/>
-    </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM118" s="10"/>
+      <c r="AN118" s="10"/>
+    </row>
+    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5466,18 +5904,20 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
-      <c r="AC119" s="11"/>
-      <c r="AD119" s="12"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
       <c r="AE119" s="11"/>
-      <c r="AF119" s="11"/>
-      <c r="AG119" s="10"/>
-      <c r="AH119" s="10"/>
+      <c r="AF119" s="12"/>
+      <c r="AG119" s="11"/>
+      <c r="AH119" s="11"/>
       <c r="AI119" s="10"/>
       <c r="AJ119" s="10"/>
       <c r="AK119" s="10"/>
       <c r="AL119" s="10"/>
-    </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM119" s="10"/>
+      <c r="AN119" s="10"/>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5506,18 +5946,20 @@
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
-      <c r="AC120" s="11"/>
-      <c r="AD120" s="12"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
       <c r="AE120" s="11"/>
-      <c r="AF120" s="11"/>
-      <c r="AG120" s="10"/>
-      <c r="AH120" s="10"/>
+      <c r="AF120" s="12"/>
+      <c r="AG120" s="11"/>
+      <c r="AH120" s="11"/>
       <c r="AI120" s="10"/>
       <c r="AJ120" s="10"/>
       <c r="AK120" s="10"/>
       <c r="AL120" s="10"/>
-    </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM120" s="10"/>
+      <c r="AN120" s="10"/>
+    </row>
+    <row r="121" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="4"/>
       <c r="C121" s="2"/>
@@ -5546,18 +5988,20 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
-      <c r="AC121" s="11"/>
-      <c r="AD121" s="12"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
       <c r="AE121" s="11"/>
-      <c r="AF121" s="11"/>
-      <c r="AG121" s="10"/>
-      <c r="AH121" s="10"/>
+      <c r="AF121" s="12"/>
+      <c r="AG121" s="11"/>
+      <c r="AH121" s="11"/>
       <c r="AI121" s="10"/>
       <c r="AJ121" s="10"/>
       <c r="AK121" s="10"/>
       <c r="AL121" s="10"/>
-    </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM121" s="10"/>
+      <c r="AN121" s="10"/>
+    </row>
+    <row r="122" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5586,18 +6030,20 @@
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
-      <c r="AC122" s="11"/>
-      <c r="AD122" s="12"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
       <c r="AE122" s="11"/>
-      <c r="AF122" s="11"/>
-      <c r="AG122" s="10"/>
-      <c r="AH122" s="10"/>
+      <c r="AF122" s="12"/>
+      <c r="AG122" s="11"/>
+      <c r="AH122" s="11"/>
       <c r="AI122" s="10"/>
       <c r="AJ122" s="10"/>
       <c r="AK122" s="10"/>
       <c r="AL122" s="10"/>
-    </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM122" s="10"/>
+      <c r="AN122" s="10"/>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5626,18 +6072,20 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
-      <c r="AC123" s="11"/>
-      <c r="AD123" s="11"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
       <c r="AE123" s="11"/>
       <c r="AF123" s="11"/>
-      <c r="AG123" s="10"/>
-      <c r="AH123" s="10"/>
+      <c r="AG123" s="11"/>
+      <c r="AH123" s="11"/>
       <c r="AI123" s="10"/>
       <c r="AJ123" s="10"/>
       <c r="AK123" s="10"/>
       <c r="AL123" s="10"/>
-    </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM123" s="10"/>
+      <c r="AN123" s="10"/>
+    </row>
+    <row r="124" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5666,18 +6114,20 @@
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
-      <c r="AC124" s="11"/>
-      <c r="AD124" s="11"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="5"/>
       <c r="AE124" s="11"/>
       <c r="AF124" s="11"/>
-      <c r="AG124" s="10"/>
-      <c r="AH124" s="10"/>
+      <c r="AG124" s="11"/>
+      <c r="AH124" s="11"/>
       <c r="AI124" s="10"/>
       <c r="AJ124" s="10"/>
       <c r="AK124" s="10"/>
       <c r="AL124" s="10"/>
-    </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM124" s="10"/>
+      <c r="AN124" s="10"/>
+    </row>
+    <row r="125" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="4"/>
       <c r="C125" s="2"/>
@@ -5706,18 +6156,20 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
-      <c r="AC125" s="11"/>
-      <c r="AD125" s="12"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
       <c r="AE125" s="11"/>
-      <c r="AF125" s="11"/>
-      <c r="AG125" s="10"/>
-      <c r="AH125" s="10"/>
+      <c r="AF125" s="12"/>
+      <c r="AG125" s="11"/>
+      <c r="AH125" s="11"/>
       <c r="AI125" s="10"/>
       <c r="AJ125" s="10"/>
       <c r="AK125" s="10"/>
       <c r="AL125" s="10"/>
-    </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM125" s="10"/>
+      <c r="AN125" s="10"/>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5746,18 +6198,20 @@
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
-      <c r="AC126" s="11"/>
-      <c r="AD126" s="11"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
       <c r="AE126" s="11"/>
       <c r="AF126" s="11"/>
-      <c r="AG126" s="10"/>
-      <c r="AH126" s="10"/>
+      <c r="AG126" s="11"/>
+      <c r="AH126" s="11"/>
       <c r="AI126" s="10"/>
       <c r="AJ126" s="10"/>
       <c r="AK126" s="10"/>
       <c r="AL126" s="10"/>
-    </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM126" s="10"/>
+      <c r="AN126" s="10"/>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5786,18 +6240,20 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
-      <c r="AC127" s="11"/>
-      <c r="AD127" s="12"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
       <c r="AE127" s="11"/>
-      <c r="AF127" s="11"/>
-      <c r="AG127" s="10"/>
-      <c r="AH127" s="10"/>
+      <c r="AF127" s="12"/>
+      <c r="AG127" s="11"/>
+      <c r="AH127" s="11"/>
       <c r="AI127" s="10"/>
       <c r="AJ127" s="10"/>
       <c r="AK127" s="10"/>
       <c r="AL127" s="10"/>
-    </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM127" s="10"/>
+      <c r="AN127" s="10"/>
+    </row>
+    <row r="128" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5826,18 +6282,20 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
-      <c r="AC128" s="11"/>
-      <c r="AD128" s="12"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
       <c r="AE128" s="11"/>
-      <c r="AF128" s="11"/>
-      <c r="AG128" s="10"/>
-      <c r="AH128" s="10"/>
+      <c r="AF128" s="12"/>
+      <c r="AG128" s="11"/>
+      <c r="AH128" s="11"/>
       <c r="AI128" s="10"/>
       <c r="AJ128" s="10"/>
       <c r="AK128" s="10"/>
       <c r="AL128" s="10"/>
-    </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM128" s="10"/>
+      <c r="AN128" s="10"/>
+    </row>
+    <row r="129" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="4"/>
       <c r="C129" s="2"/>
@@ -5866,18 +6324,20 @@
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
-      <c r="AC129" s="11"/>
-      <c r="AD129" s="12"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
       <c r="AE129" s="11"/>
-      <c r="AF129" s="11"/>
-      <c r="AG129" s="10"/>
-      <c r="AH129" s="10"/>
+      <c r="AF129" s="12"/>
+      <c r="AG129" s="11"/>
+      <c r="AH129" s="11"/>
       <c r="AI129" s="10"/>
       <c r="AJ129" s="10"/>
       <c r="AK129" s="10"/>
       <c r="AL129" s="10"/>
-    </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM129" s="10"/>
+      <c r="AN129" s="10"/>
+    </row>
+    <row r="130" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5906,18 +6366,20 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
-      <c r="AC130" s="11"/>
-      <c r="AD130" s="12"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
       <c r="AE130" s="11"/>
-      <c r="AF130" s="11"/>
-      <c r="AG130" s="10"/>
-      <c r="AH130" s="10"/>
+      <c r="AF130" s="12"/>
+      <c r="AG130" s="11"/>
+      <c r="AH130" s="11"/>
       <c r="AI130" s="10"/>
       <c r="AJ130" s="10"/>
       <c r="AK130" s="10"/>
       <c r="AL130" s="10"/>
-    </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM130" s="10"/>
+      <c r="AN130" s="10"/>
+    </row>
+    <row r="131" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5946,18 +6408,20 @@
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
-      <c r="AC131" s="11"/>
-      <c r="AD131" s="11"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
       <c r="AE131" s="11"/>
       <c r="AF131" s="11"/>
-      <c r="AG131" s="10"/>
-      <c r="AH131" s="10"/>
+      <c r="AG131" s="11"/>
+      <c r="AH131" s="11"/>
       <c r="AI131" s="10"/>
       <c r="AJ131" s="10"/>
       <c r="AK131" s="10"/>
       <c r="AL131" s="10"/>
-    </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM131" s="10"/>
+      <c r="AN131" s="10"/>
+    </row>
+    <row r="132" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5986,18 +6450,20 @@
       <c r="Z132" s="5"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
-      <c r="AC132" s="11"/>
-      <c r="AD132" s="12"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
       <c r="AE132" s="11"/>
-      <c r="AF132" s="11"/>
-      <c r="AG132" s="10"/>
-      <c r="AH132" s="10"/>
+      <c r="AF132" s="12"/>
+      <c r="AG132" s="11"/>
+      <c r="AH132" s="11"/>
       <c r="AI132" s="10"/>
       <c r="AJ132" s="10"/>
       <c r="AK132" s="10"/>
       <c r="AL132" s="10"/>
-    </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM132" s="10"/>
+      <c r="AN132" s="10"/>
+    </row>
+    <row r="133" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="4"/>
       <c r="C133" s="2"/>
@@ -6026,18 +6492,20 @@
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
-      <c r="AC133" s="11"/>
-      <c r="AD133" s="12"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
       <c r="AE133" s="11"/>
-      <c r="AF133" s="11"/>
-      <c r="AG133" s="10"/>
-      <c r="AH133" s="10"/>
+      <c r="AF133" s="12"/>
+      <c r="AG133" s="11"/>
+      <c r="AH133" s="11"/>
       <c r="AI133" s="10"/>
       <c r="AJ133" s="10"/>
       <c r="AK133" s="10"/>
       <c r="AL133" s="10"/>
-    </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM133" s="10"/>
+      <c r="AN133" s="10"/>
+    </row>
+    <row r="134" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6066,18 +6534,20 @@
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
-      <c r="AC134" s="11"/>
-      <c r="AD134" s="12"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
       <c r="AE134" s="11"/>
-      <c r="AF134" s="11"/>
-      <c r="AG134" s="10"/>
-      <c r="AH134" s="10"/>
+      <c r="AF134" s="12"/>
+      <c r="AG134" s="11"/>
+      <c r="AH134" s="11"/>
       <c r="AI134" s="10"/>
       <c r="AJ134" s="10"/>
       <c r="AK134" s="10"/>
       <c r="AL134" s="10"/>
-    </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM134" s="10"/>
+      <c r="AN134" s="10"/>
+    </row>
+    <row r="135" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6106,18 +6576,20 @@
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
-      <c r="AC135" s="11"/>
-      <c r="AD135" s="12"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
       <c r="AE135" s="11"/>
-      <c r="AF135" s="11"/>
-      <c r="AG135" s="10"/>
-      <c r="AH135" s="10"/>
+      <c r="AF135" s="12"/>
+      <c r="AG135" s="11"/>
+      <c r="AH135" s="11"/>
       <c r="AI135" s="10"/>
       <c r="AJ135" s="10"/>
       <c r="AK135" s="10"/>
       <c r="AL135" s="10"/>
-    </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM135" s="10"/>
+      <c r="AN135" s="10"/>
+    </row>
+    <row r="136" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6146,18 +6618,20 @@
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
-      <c r="AC136" s="11"/>
-      <c r="AD136" s="11"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
       <c r="AE136" s="11"/>
       <c r="AF136" s="11"/>
-      <c r="AG136" s="10"/>
-      <c r="AH136" s="10"/>
+      <c r="AG136" s="11"/>
+      <c r="AH136" s="11"/>
       <c r="AI136" s="10"/>
       <c r="AJ136" s="10"/>
       <c r="AK136" s="10"/>
       <c r="AL136" s="10"/>
-    </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM136" s="10"/>
+      <c r="AN136" s="10"/>
+    </row>
+    <row r="137" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="4"/>
       <c r="C137" s="2"/>
@@ -6186,18 +6660,20 @@
       <c r="Z137" s="5"/>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
-      <c r="AC137" s="11"/>
-      <c r="AD137" s="12"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
       <c r="AE137" s="11"/>
-      <c r="AF137" s="11"/>
-      <c r="AG137" s="10"/>
-      <c r="AH137" s="10"/>
+      <c r="AF137" s="12"/>
+      <c r="AG137" s="11"/>
+      <c r="AH137" s="11"/>
       <c r="AI137" s="10"/>
       <c r="AJ137" s="10"/>
       <c r="AK137" s="10"/>
       <c r="AL137" s="10"/>
-    </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM137" s="10"/>
+      <c r="AN137" s="10"/>
+    </row>
+    <row r="138" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6226,18 +6702,20 @@
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
-      <c r="AC138" s="11"/>
-      <c r="AD138" s="12"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
       <c r="AE138" s="11"/>
-      <c r="AF138" s="11"/>
-      <c r="AG138" s="10"/>
-      <c r="AH138" s="10"/>
+      <c r="AF138" s="12"/>
+      <c r="AG138" s="11"/>
+      <c r="AH138" s="11"/>
       <c r="AI138" s="10"/>
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
       <c r="AL138" s="10"/>
-    </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM138" s="10"/>
+      <c r="AN138" s="10"/>
+    </row>
+    <row r="139" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6266,18 +6744,20 @@
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
-      <c r="AC139" s="11"/>
-      <c r="AD139" s="11"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
       <c r="AE139" s="11"/>
       <c r="AF139" s="11"/>
-      <c r="AG139" s="10"/>
-      <c r="AH139" s="10"/>
+      <c r="AG139" s="11"/>
+      <c r="AH139" s="11"/>
       <c r="AI139" s="10"/>
       <c r="AJ139" s="10"/>
       <c r="AK139" s="10"/>
       <c r="AL139" s="10"/>
-    </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM139" s="10"/>
+      <c r="AN139" s="10"/>
+    </row>
+    <row r="140" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6306,18 +6786,20 @@
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
-      <c r="AC140" s="11"/>
-      <c r="AD140" s="12"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
       <c r="AE140" s="11"/>
-      <c r="AF140" s="11"/>
-      <c r="AG140" s="10"/>
-      <c r="AH140" s="10"/>
+      <c r="AF140" s="12"/>
+      <c r="AG140" s="11"/>
+      <c r="AH140" s="11"/>
       <c r="AI140" s="10"/>
       <c r="AJ140" s="10"/>
       <c r="AK140" s="10"/>
       <c r="AL140" s="10"/>
-    </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM140" s="10"/>
+      <c r="AN140" s="10"/>
+    </row>
+    <row r="141" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="4"/>
       <c r="C141" s="2"/>
@@ -6346,18 +6828,20 @@
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
-      <c r="AC141" s="11"/>
-      <c r="AD141" s="12"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
       <c r="AE141" s="11"/>
-      <c r="AF141" s="11"/>
-      <c r="AG141" s="10"/>
-      <c r="AH141" s="10"/>
+      <c r="AF141" s="12"/>
+      <c r="AG141" s="11"/>
+      <c r="AH141" s="11"/>
       <c r="AI141" s="10"/>
       <c r="AJ141" s="10"/>
       <c r="AK141" s="10"/>
       <c r="AL141" s="10"/>
-    </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM141" s="10"/>
+      <c r="AN141" s="10"/>
+    </row>
+    <row r="142" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6386,18 +6870,20 @@
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
-      <c r="AC142" s="11"/>
-      <c r="AD142" s="12"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
       <c r="AE142" s="11"/>
-      <c r="AF142" s="11"/>
-      <c r="AG142" s="10"/>
-      <c r="AH142" s="10"/>
+      <c r="AF142" s="12"/>
+      <c r="AG142" s="11"/>
+      <c r="AH142" s="11"/>
       <c r="AI142" s="10"/>
       <c r="AJ142" s="10"/>
       <c r="AK142" s="10"/>
       <c r="AL142" s="10"/>
-    </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM142" s="10"/>
+      <c r="AN142" s="10"/>
+    </row>
+    <row r="143" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6426,18 +6912,20 @@
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
-      <c r="AC143" s="11"/>
-      <c r="AD143" s="12"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
       <c r="AE143" s="11"/>
-      <c r="AF143" s="11"/>
-      <c r="AG143" s="10"/>
-      <c r="AH143" s="10"/>
+      <c r="AF143" s="12"/>
+      <c r="AG143" s="11"/>
+      <c r="AH143" s="11"/>
       <c r="AI143" s="10"/>
       <c r="AJ143" s="10"/>
       <c r="AK143" s="10"/>
       <c r="AL143" s="10"/>
-    </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM143" s="10"/>
+      <c r="AN143" s="10"/>
+    </row>
+    <row r="144" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6466,18 +6954,20 @@
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
-      <c r="AC144" s="11"/>
-      <c r="AD144" s="11"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
       <c r="AE144" s="11"/>
       <c r="AF144" s="11"/>
-      <c r="AG144" s="10"/>
-      <c r="AH144" s="10"/>
+      <c r="AG144" s="11"/>
+      <c r="AH144" s="11"/>
       <c r="AI144" s="10"/>
       <c r="AJ144" s="10"/>
       <c r="AK144" s="10"/>
       <c r="AL144" s="10"/>
-    </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM144" s="10"/>
+      <c r="AN144" s="10"/>
+    </row>
+    <row r="145" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="4"/>
       <c r="C145" s="2"/>
@@ -6506,18 +6996,20 @@
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
-      <c r="AC145" s="11"/>
-      <c r="AD145" s="12"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
       <c r="AE145" s="11"/>
-      <c r="AF145" s="11"/>
-      <c r="AG145" s="10"/>
-      <c r="AH145" s="10"/>
+      <c r="AF145" s="12"/>
+      <c r="AG145" s="11"/>
+      <c r="AH145" s="11"/>
       <c r="AI145" s="10"/>
       <c r="AJ145" s="10"/>
       <c r="AK145" s="10"/>
       <c r="AL145" s="10"/>
-    </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM145" s="10"/>
+      <c r="AN145" s="10"/>
+    </row>
+    <row r="146" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6546,18 +7038,20 @@
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
-      <c r="AC146" s="11"/>
-      <c r="AD146" s="11"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
       <c r="AE146" s="11"/>
       <c r="AF146" s="11"/>
-      <c r="AG146" s="10"/>
-      <c r="AH146" s="10"/>
+      <c r="AG146" s="11"/>
+      <c r="AH146" s="11"/>
       <c r="AI146" s="10"/>
       <c r="AJ146" s="10"/>
       <c r="AK146" s="10"/>
       <c r="AL146" s="10"/>
-    </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM146" s="10"/>
+      <c r="AN146" s="10"/>
+    </row>
+    <row r="147" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6586,18 +7080,20 @@
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
-      <c r="AC147" s="11"/>
-      <c r="AD147" s="11"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
       <c r="AE147" s="11"/>
       <c r="AF147" s="11"/>
-      <c r="AG147" s="10"/>
-      <c r="AH147" s="10"/>
+      <c r="AG147" s="11"/>
+      <c r="AH147" s="11"/>
       <c r="AI147" s="10"/>
       <c r="AJ147" s="10"/>
       <c r="AK147" s="10"/>
       <c r="AL147" s="10"/>
-    </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM147" s="10"/>
+      <c r="AN147" s="10"/>
+    </row>
+    <row r="148" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6626,18 +7122,20 @@
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
-      <c r="AC148" s="11"/>
-      <c r="AD148" s="11"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
       <c r="AE148" s="11"/>
       <c r="AF148" s="11"/>
-      <c r="AG148" s="10"/>
-      <c r="AH148" s="10"/>
+      <c r="AG148" s="11"/>
+      <c r="AH148" s="11"/>
       <c r="AI148" s="10"/>
       <c r="AJ148" s="10"/>
       <c r="AK148" s="10"/>
       <c r="AL148" s="10"/>
-    </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM148" s="10"/>
+      <c r="AN148" s="10"/>
+    </row>
+    <row r="149" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="4"/>
       <c r="C149" s="2"/>
@@ -6666,18 +7164,20 @@
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
-      <c r="AC149" s="11"/>
-      <c r="AD149" s="12"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
       <c r="AE149" s="11"/>
-      <c r="AF149" s="11"/>
-      <c r="AG149" s="10"/>
-      <c r="AH149" s="10"/>
+      <c r="AF149" s="12"/>
+      <c r="AG149" s="11"/>
+      <c r="AH149" s="11"/>
       <c r="AI149" s="10"/>
       <c r="AJ149" s="10"/>
       <c r="AK149" s="10"/>
       <c r="AL149" s="10"/>
-    </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM149" s="10"/>
+      <c r="AN149" s="10"/>
+    </row>
+    <row r="150" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6706,18 +7206,20 @@
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
-      <c r="AC150" s="11"/>
-      <c r="AD150" s="12"/>
-      <c r="AE150" s="14"/>
-      <c r="AF150" s="11"/>
-      <c r="AG150" s="10"/>
-      <c r="AH150" s="10"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="11"/>
+      <c r="AF150" s="12"/>
+      <c r="AG150" s="14"/>
+      <c r="AH150" s="11"/>
       <c r="AI150" s="10"/>
       <c r="AJ150" s="10"/>
       <c r="AK150" s="10"/>
       <c r="AL150" s="10"/>
-    </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM150" s="10"/>
+      <c r="AN150" s="10"/>
+    </row>
+    <row r="151" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6746,18 +7248,20 @@
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
-      <c r="AC151" s="11"/>
-      <c r="AD151" s="12"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
       <c r="AE151" s="11"/>
-      <c r="AF151" s="11"/>
-      <c r="AG151" s="10"/>
-      <c r="AH151" s="10"/>
+      <c r="AF151" s="12"/>
+      <c r="AG151" s="11"/>
+      <c r="AH151" s="11"/>
       <c r="AI151" s="10"/>
       <c r="AJ151" s="10"/>
       <c r="AK151" s="10"/>
       <c r="AL151" s="10"/>
-    </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM151" s="10"/>
+      <c r="AN151" s="10"/>
+    </row>
+    <row r="152" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6786,18 +7290,20 @@
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
-      <c r="AC152" s="11"/>
-      <c r="AD152" s="12"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
       <c r="AE152" s="11"/>
-      <c r="AF152" s="11"/>
-      <c r="AG152" s="10"/>
-      <c r="AH152" s="10"/>
+      <c r="AF152" s="12"/>
+      <c r="AG152" s="11"/>
+      <c r="AH152" s="11"/>
       <c r="AI152" s="10"/>
       <c r="AJ152" s="10"/>
       <c r="AK152" s="10"/>
       <c r="AL152" s="10"/>
-    </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM152" s="10"/>
+      <c r="AN152" s="10"/>
+    </row>
+    <row r="153" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="4"/>
       <c r="C153" s="2"/>
@@ -6826,18 +7332,20 @@
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
-      <c r="AC153" s="11"/>
-      <c r="AD153" s="12"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
       <c r="AE153" s="11"/>
-      <c r="AF153" s="11"/>
-      <c r="AG153" s="10"/>
-      <c r="AH153" s="10"/>
+      <c r="AF153" s="12"/>
+      <c r="AG153" s="11"/>
+      <c r="AH153" s="11"/>
       <c r="AI153" s="10"/>
       <c r="AJ153" s="10"/>
       <c r="AK153" s="10"/>
       <c r="AL153" s="10"/>
-    </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM153" s="10"/>
+      <c r="AN153" s="10"/>
+    </row>
+    <row r="154" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6866,18 +7374,20 @@
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
-      <c r="AC154" s="11"/>
-      <c r="AD154" s="12"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
       <c r="AE154" s="11"/>
-      <c r="AF154" s="11"/>
-      <c r="AG154" s="10"/>
-      <c r="AH154" s="10"/>
+      <c r="AF154" s="12"/>
+      <c r="AG154" s="11"/>
+      <c r="AH154" s="11"/>
       <c r="AI154" s="10"/>
       <c r="AJ154" s="10"/>
       <c r="AK154" s="10"/>
       <c r="AL154" s="10"/>
-    </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM154" s="10"/>
+      <c r="AN154" s="10"/>
+    </row>
+    <row r="155" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6906,18 +7416,20 @@
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
-      <c r="AC155" s="11"/>
-      <c r="AD155" s="12"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
       <c r="AE155" s="11"/>
-      <c r="AF155" s="11"/>
-      <c r="AG155" s="10"/>
-      <c r="AH155" s="10"/>
+      <c r="AF155" s="12"/>
+      <c r="AG155" s="11"/>
+      <c r="AH155" s="11"/>
       <c r="AI155" s="10"/>
       <c r="AJ155" s="10"/>
       <c r="AK155" s="10"/>
       <c r="AL155" s="10"/>
-    </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM155" s="10"/>
+      <c r="AN155" s="10"/>
+    </row>
+    <row r="156" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6946,18 +7458,20 @@
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
-      <c r="AC156" s="11"/>
-      <c r="AD156" s="12"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="5"/>
       <c r="AE156" s="11"/>
-      <c r="AF156" s="11"/>
-      <c r="AG156" s="10"/>
-      <c r="AH156" s="10"/>
+      <c r="AF156" s="12"/>
+      <c r="AG156" s="11"/>
+      <c r="AH156" s="11"/>
       <c r="AI156" s="10"/>
       <c r="AJ156" s="10"/>
       <c r="AK156" s="10"/>
       <c r="AL156" s="10"/>
-    </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM156" s="10"/>
+      <c r="AN156" s="10"/>
+    </row>
+    <row r="157" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="4"/>
       <c r="C157" s="2"/>
@@ -6986,18 +7500,20 @@
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
-      <c r="AC157" s="11"/>
-      <c r="AD157" s="12"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="5"/>
       <c r="AE157" s="11"/>
-      <c r="AF157" s="11"/>
-      <c r="AG157" s="10"/>
-      <c r="AH157" s="10"/>
+      <c r="AF157" s="12"/>
+      <c r="AG157" s="11"/>
+      <c r="AH157" s="11"/>
       <c r="AI157" s="10"/>
       <c r="AJ157" s="10"/>
       <c r="AK157" s="10"/>
       <c r="AL157" s="10"/>
-    </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM157" s="10"/>
+      <c r="AN157" s="10"/>
+    </row>
+    <row r="158" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7026,18 +7542,20 @@
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
-      <c r="AC158" s="11"/>
-      <c r="AD158" s="12"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="5"/>
       <c r="AE158" s="11"/>
-      <c r="AF158" s="11"/>
-      <c r="AG158" s="10"/>
-      <c r="AH158" s="10"/>
+      <c r="AF158" s="12"/>
+      <c r="AG158" s="11"/>
+      <c r="AH158" s="11"/>
       <c r="AI158" s="10"/>
       <c r="AJ158" s="10"/>
       <c r="AK158" s="10"/>
       <c r="AL158" s="10"/>
-    </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM158" s="10"/>
+      <c r="AN158" s="10"/>
+    </row>
+    <row r="159" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7066,18 +7584,20 @@
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
-      <c r="AC159" s="11"/>
-      <c r="AD159" s="12"/>
+      <c r="AC159" s="5"/>
+      <c r="AD159" s="5"/>
       <c r="AE159" s="11"/>
-      <c r="AF159" s="11"/>
-      <c r="AG159" s="10"/>
-      <c r="AH159" s="10"/>
+      <c r="AF159" s="12"/>
+      <c r="AG159" s="11"/>
+      <c r="AH159" s="11"/>
       <c r="AI159" s="10"/>
       <c r="AJ159" s="10"/>
       <c r="AK159" s="10"/>
       <c r="AL159" s="10"/>
-    </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM159" s="10"/>
+      <c r="AN159" s="10"/>
+    </row>
+    <row r="160" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7106,18 +7626,20 @@
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
-      <c r="AC160" s="11"/>
-      <c r="AD160" s="12"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="5"/>
       <c r="AE160" s="11"/>
-      <c r="AF160" s="11"/>
-      <c r="AG160" s="10"/>
-      <c r="AH160" s="10"/>
+      <c r="AF160" s="12"/>
+      <c r="AG160" s="11"/>
+      <c r="AH160" s="11"/>
       <c r="AI160" s="10"/>
       <c r="AJ160" s="10"/>
       <c r="AK160" s="10"/>
       <c r="AL160" s="10"/>
-    </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM160" s="10"/>
+      <c r="AN160" s="10"/>
+    </row>
+    <row r="161" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="4"/>
       <c r="C161" s="2"/>
@@ -7146,18 +7668,20 @@
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
-      <c r="AC161" s="11"/>
-      <c r="AD161" s="11"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="5"/>
       <c r="AE161" s="11"/>
       <c r="AF161" s="11"/>
-      <c r="AG161" s="10"/>
-      <c r="AH161" s="10"/>
+      <c r="AG161" s="11"/>
+      <c r="AH161" s="11"/>
       <c r="AI161" s="10"/>
       <c r="AJ161" s="10"/>
       <c r="AK161" s="10"/>
       <c r="AL161" s="10"/>
-    </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM161" s="10"/>
+      <c r="AN161" s="10"/>
+    </row>
+    <row r="162" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7186,18 +7710,20 @@
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
-      <c r="AC162" s="11"/>
-      <c r="AD162" s="12"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="5"/>
       <c r="AE162" s="11"/>
-      <c r="AF162" s="11"/>
-      <c r="AG162" s="10"/>
-      <c r="AH162" s="10"/>
+      <c r="AF162" s="12"/>
+      <c r="AG162" s="11"/>
+      <c r="AH162" s="11"/>
       <c r="AI162" s="10"/>
       <c r="AJ162" s="10"/>
       <c r="AK162" s="10"/>
       <c r="AL162" s="10"/>
-    </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM162" s="10"/>
+      <c r="AN162" s="10"/>
+    </row>
+    <row r="163" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7226,18 +7752,20 @@
       <c r="Z163" s="5"/>
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
-      <c r="AC163" s="11"/>
-      <c r="AD163" s="12"/>
+      <c r="AC163" s="5"/>
+      <c r="AD163" s="5"/>
       <c r="AE163" s="11"/>
-      <c r="AF163" s="11"/>
-      <c r="AG163" s="10"/>
-      <c r="AH163" s="10"/>
+      <c r="AF163" s="12"/>
+      <c r="AG163" s="11"/>
+      <c r="AH163" s="11"/>
       <c r="AI163" s="10"/>
       <c r="AJ163" s="10"/>
       <c r="AK163" s="10"/>
       <c r="AL163" s="10"/>
-    </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM163" s="10"/>
+      <c r="AN163" s="10"/>
+    </row>
+    <row r="164" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7266,18 +7794,20 @@
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
-      <c r="AC164" s="11"/>
-      <c r="AD164" s="12"/>
+      <c r="AC164" s="5"/>
+      <c r="AD164" s="5"/>
       <c r="AE164" s="11"/>
-      <c r="AF164" s="11"/>
-      <c r="AG164" s="10"/>
-      <c r="AH164" s="10"/>
+      <c r="AF164" s="12"/>
+      <c r="AG164" s="11"/>
+      <c r="AH164" s="11"/>
       <c r="AI164" s="10"/>
       <c r="AJ164" s="10"/>
       <c r="AK164" s="10"/>
       <c r="AL164" s="10"/>
-    </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM164" s="10"/>
+      <c r="AN164" s="10"/>
+    </row>
+    <row r="165" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="4"/>
       <c r="C165" s="2"/>
@@ -7306,18 +7836,20 @@
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
-      <c r="AC165" s="11"/>
-      <c r="AD165" s="12"/>
+      <c r="AC165" s="5"/>
+      <c r="AD165" s="5"/>
       <c r="AE165" s="11"/>
-      <c r="AF165" s="11"/>
-      <c r="AG165" s="10"/>
-      <c r="AH165" s="10"/>
+      <c r="AF165" s="12"/>
+      <c r="AG165" s="11"/>
+      <c r="AH165" s="11"/>
       <c r="AI165" s="10"/>
       <c r="AJ165" s="10"/>
       <c r="AK165" s="10"/>
       <c r="AL165" s="10"/>
-    </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM165" s="10"/>
+      <c r="AN165" s="10"/>
+    </row>
+    <row r="166" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7346,18 +7878,20 @@
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
-      <c r="AC166" s="11"/>
-      <c r="AD166" s="12"/>
+      <c r="AC166" s="5"/>
+      <c r="AD166" s="5"/>
       <c r="AE166" s="11"/>
-      <c r="AF166" s="11"/>
-      <c r="AG166" s="10"/>
-      <c r="AH166" s="10"/>
+      <c r="AF166" s="12"/>
+      <c r="AG166" s="11"/>
+      <c r="AH166" s="11"/>
       <c r="AI166" s="10"/>
       <c r="AJ166" s="10"/>
       <c r="AK166" s="10"/>
       <c r="AL166" s="10"/>
-    </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM166" s="10"/>
+      <c r="AN166" s="10"/>
+    </row>
+    <row r="167" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7386,18 +7920,20 @@
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
-      <c r="AC167" s="11"/>
-      <c r="AD167" s="11"/>
+      <c r="AC167" s="5"/>
+      <c r="AD167" s="5"/>
       <c r="AE167" s="11"/>
       <c r="AF167" s="11"/>
-      <c r="AG167" s="10"/>
-      <c r="AH167" s="10"/>
+      <c r="AG167" s="11"/>
+      <c r="AH167" s="11"/>
       <c r="AI167" s="10"/>
       <c r="AJ167" s="10"/>
       <c r="AK167" s="10"/>
       <c r="AL167" s="10"/>
-    </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM167" s="10"/>
+      <c r="AN167" s="10"/>
+    </row>
+    <row r="168" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7426,18 +7962,20 @@
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
-      <c r="AC168" s="11"/>
-      <c r="AD168" s="11"/>
+      <c r="AC168" s="5"/>
+      <c r="AD168" s="5"/>
       <c r="AE168" s="11"/>
       <c r="AF168" s="11"/>
-      <c r="AG168" s="10"/>
-      <c r="AH168" s="10"/>
+      <c r="AG168" s="11"/>
+      <c r="AH168" s="11"/>
       <c r="AI168" s="10"/>
       <c r="AJ168" s="10"/>
       <c r="AK168" s="10"/>
       <c r="AL168" s="10"/>
-    </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM168" s="10"/>
+      <c r="AN168" s="10"/>
+    </row>
+    <row r="169" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="4"/>
       <c r="C169" s="2"/>
@@ -7466,18 +8004,20 @@
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
-      <c r="AC169" s="11"/>
-      <c r="AD169" s="11"/>
+      <c r="AC169" s="5"/>
+      <c r="AD169" s="5"/>
       <c r="AE169" s="11"/>
       <c r="AF169" s="11"/>
-      <c r="AG169" s="10"/>
-      <c r="AH169" s="10"/>
+      <c r="AG169" s="11"/>
+      <c r="AH169" s="11"/>
       <c r="AI169" s="10"/>
       <c r="AJ169" s="10"/>
       <c r="AK169" s="10"/>
       <c r="AL169" s="10"/>
-    </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM169" s="10"/>
+      <c r="AN169" s="10"/>
+    </row>
+    <row r="170" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7506,18 +8046,20 @@
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
-      <c r="AC170" s="11"/>
-      <c r="AD170" s="12"/>
+      <c r="AC170" s="5"/>
+      <c r="AD170" s="5"/>
       <c r="AE170" s="11"/>
-      <c r="AF170" s="11"/>
-      <c r="AG170" s="10"/>
-      <c r="AH170" s="10"/>
+      <c r="AF170" s="12"/>
+      <c r="AG170" s="11"/>
+      <c r="AH170" s="11"/>
       <c r="AI170" s="10"/>
       <c r="AJ170" s="10"/>
       <c r="AK170" s="10"/>
       <c r="AL170" s="10"/>
-    </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM170" s="10"/>
+      <c r="AN170" s="10"/>
+    </row>
+    <row r="171" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7546,18 +8088,20 @@
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
-      <c r="AC171" s="11"/>
-      <c r="AD171" s="12"/>
+      <c r="AC171" s="5"/>
+      <c r="AD171" s="5"/>
       <c r="AE171" s="11"/>
-      <c r="AF171" s="11"/>
-      <c r="AG171" s="10"/>
-      <c r="AH171" s="10"/>
+      <c r="AF171" s="12"/>
+      <c r="AG171" s="11"/>
+      <c r="AH171" s="11"/>
       <c r="AI171" s="10"/>
       <c r="AJ171" s="10"/>
       <c r="AK171" s="10"/>
       <c r="AL171" s="10"/>
-    </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM171" s="10"/>
+      <c r="AN171" s="10"/>
+    </row>
+    <row r="172" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7586,18 +8130,20 @@
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
-      <c r="AC172" s="11"/>
-      <c r="AD172" s="12"/>
+      <c r="AC172" s="5"/>
+      <c r="AD172" s="5"/>
       <c r="AE172" s="11"/>
-      <c r="AF172" s="11"/>
-      <c r="AG172" s="10"/>
-      <c r="AH172" s="10"/>
+      <c r="AF172" s="12"/>
+      <c r="AG172" s="11"/>
+      <c r="AH172" s="11"/>
       <c r="AI172" s="10"/>
       <c r="AJ172" s="10"/>
       <c r="AK172" s="10"/>
       <c r="AL172" s="10"/>
-    </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM172" s="10"/>
+      <c r="AN172" s="10"/>
+    </row>
+    <row r="173" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="4"/>
       <c r="C173" s="2"/>
@@ -7626,18 +8172,20 @@
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
-      <c r="AC173" s="11"/>
-      <c r="AD173" s="11"/>
+      <c r="AC173" s="5"/>
+      <c r="AD173" s="5"/>
       <c r="AE173" s="11"/>
       <c r="AF173" s="11"/>
-      <c r="AG173" s="10"/>
-      <c r="AH173" s="10"/>
+      <c r="AG173" s="11"/>
+      <c r="AH173" s="11"/>
       <c r="AI173" s="10"/>
       <c r="AJ173" s="10"/>
       <c r="AK173" s="10"/>
       <c r="AL173" s="10"/>
-    </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM173" s="10"/>
+      <c r="AN173" s="10"/>
+    </row>
+    <row r="174" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7666,18 +8214,20 @@
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
-      <c r="AC174" s="11"/>
-      <c r="AD174" s="12"/>
+      <c r="AC174" s="5"/>
+      <c r="AD174" s="5"/>
       <c r="AE174" s="11"/>
-      <c r="AF174" s="11"/>
-      <c r="AG174" s="10"/>
-      <c r="AH174" s="10"/>
+      <c r="AF174" s="12"/>
+      <c r="AG174" s="11"/>
+      <c r="AH174" s="11"/>
       <c r="AI174" s="10"/>
       <c r="AJ174" s="10"/>
       <c r="AK174" s="10"/>
       <c r="AL174" s="10"/>
-    </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM174" s="10"/>
+      <c r="AN174" s="10"/>
+    </row>
+    <row r="175" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7706,18 +8256,20 @@
       <c r="Z175" s="5"/>
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
-      <c r="AC175" s="11"/>
-      <c r="AD175" s="12"/>
+      <c r="AC175" s="5"/>
+      <c r="AD175" s="5"/>
       <c r="AE175" s="11"/>
-      <c r="AF175" s="11"/>
-      <c r="AG175" s="10"/>
-      <c r="AH175" s="10"/>
+      <c r="AF175" s="12"/>
+      <c r="AG175" s="11"/>
+      <c r="AH175" s="11"/>
       <c r="AI175" s="10"/>
       <c r="AJ175" s="10"/>
       <c r="AK175" s="10"/>
       <c r="AL175" s="10"/>
-    </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM175" s="10"/>
+      <c r="AN175" s="10"/>
+    </row>
+    <row r="176" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7746,18 +8298,20 @@
       <c r="Z176" s="5"/>
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
-      <c r="AC176" s="11"/>
-      <c r="AD176" s="12"/>
+      <c r="AC176" s="5"/>
+      <c r="AD176" s="5"/>
       <c r="AE176" s="11"/>
-      <c r="AF176" s="11"/>
-      <c r="AG176" s="10"/>
-      <c r="AH176" s="10"/>
+      <c r="AF176" s="12"/>
+      <c r="AG176" s="11"/>
+      <c r="AH176" s="11"/>
       <c r="AI176" s="10"/>
       <c r="AJ176" s="10"/>
       <c r="AK176" s="10"/>
       <c r="AL176" s="10"/>
-    </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM176" s="10"/>
+      <c r="AN176" s="10"/>
+    </row>
+    <row r="177" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="4"/>
       <c r="C177" s="2"/>
@@ -7786,18 +8340,20 @@
       <c r="Z177" s="5"/>
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
-      <c r="AC177" s="11"/>
-      <c r="AD177" s="12"/>
+      <c r="AC177" s="5"/>
+      <c r="AD177" s="5"/>
       <c r="AE177" s="11"/>
-      <c r="AF177" s="11"/>
-      <c r="AG177" s="10"/>
-      <c r="AH177" s="10"/>
+      <c r="AF177" s="12"/>
+      <c r="AG177" s="11"/>
+      <c r="AH177" s="11"/>
       <c r="AI177" s="10"/>
       <c r="AJ177" s="10"/>
       <c r="AK177" s="10"/>
       <c r="AL177" s="10"/>
-    </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM177" s="10"/>
+      <c r="AN177" s="10"/>
+    </row>
+    <row r="178" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7826,18 +8382,20 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
-      <c r="AC178" s="11"/>
-      <c r="AD178" s="11"/>
+      <c r="AC178" s="5"/>
+      <c r="AD178" s="5"/>
       <c r="AE178" s="11"/>
       <c r="AF178" s="11"/>
-      <c r="AG178" s="10"/>
-      <c r="AH178" s="10"/>
+      <c r="AG178" s="11"/>
+      <c r="AH178" s="11"/>
       <c r="AI178" s="10"/>
       <c r="AJ178" s="10"/>
       <c r="AK178" s="10"/>
       <c r="AL178" s="10"/>
-    </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM178" s="10"/>
+      <c r="AN178" s="10"/>
+    </row>
+    <row r="179" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7866,18 +8424,20 @@
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
-      <c r="AC179" s="11"/>
-      <c r="AD179" s="11"/>
+      <c r="AC179" s="5"/>
+      <c r="AD179" s="5"/>
       <c r="AE179" s="11"/>
       <c r="AF179" s="11"/>
-      <c r="AG179" s="10"/>
-      <c r="AH179" s="10"/>
+      <c r="AG179" s="11"/>
+      <c r="AH179" s="11"/>
       <c r="AI179" s="10"/>
       <c r="AJ179" s="10"/>
       <c r="AK179" s="10"/>
       <c r="AL179" s="10"/>
-    </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM179" s="10"/>
+      <c r="AN179" s="10"/>
+    </row>
+    <row r="180" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7906,18 +8466,20 @@
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
-      <c r="AC180" s="11"/>
-      <c r="AD180" s="12"/>
+      <c r="AC180" s="5"/>
+      <c r="AD180" s="5"/>
       <c r="AE180" s="11"/>
-      <c r="AF180" s="11"/>
-      <c r="AG180" s="10"/>
-      <c r="AH180" s="10"/>
+      <c r="AF180" s="12"/>
+      <c r="AG180" s="11"/>
+      <c r="AH180" s="11"/>
       <c r="AI180" s="10"/>
       <c r="AJ180" s="10"/>
       <c r="AK180" s="10"/>
       <c r="AL180" s="10"/>
-    </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM180" s="10"/>
+      <c r="AN180" s="10"/>
+    </row>
+    <row r="181" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="4"/>
       <c r="C181" s="2"/>
@@ -7946,18 +8508,20 @@
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
-      <c r="AC181" s="11"/>
-      <c r="AD181" s="12"/>
+      <c r="AC181" s="5"/>
+      <c r="AD181" s="5"/>
       <c r="AE181" s="11"/>
-      <c r="AF181" s="11"/>
-      <c r="AG181" s="10"/>
-      <c r="AH181" s="10"/>
+      <c r="AF181" s="12"/>
+      <c r="AG181" s="11"/>
+      <c r="AH181" s="11"/>
       <c r="AI181" s="10"/>
       <c r="AJ181" s="10"/>
       <c r="AK181" s="10"/>
       <c r="AL181" s="10"/>
-    </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM181" s="10"/>
+      <c r="AN181" s="10"/>
+    </row>
+    <row r="182" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7986,18 +8550,20 @@
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
-      <c r="AC182" s="11"/>
-      <c r="AD182" s="12"/>
+      <c r="AC182" s="5"/>
+      <c r="AD182" s="5"/>
       <c r="AE182" s="11"/>
-      <c r="AF182" s="11"/>
-      <c r="AG182" s="10"/>
-      <c r="AH182" s="10"/>
+      <c r="AF182" s="12"/>
+      <c r="AG182" s="11"/>
+      <c r="AH182" s="11"/>
       <c r="AI182" s="10"/>
       <c r="AJ182" s="10"/>
       <c r="AK182" s="10"/>
       <c r="AL182" s="10"/>
-    </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM182" s="10"/>
+      <c r="AN182" s="10"/>
+    </row>
+    <row r="183" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -8026,18 +8592,20 @@
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
-      <c r="AC183" s="11"/>
-      <c r="AD183" s="11"/>
+      <c r="AC183" s="5"/>
+      <c r="AD183" s="5"/>
       <c r="AE183" s="11"/>
       <c r="AF183" s="11"/>
-      <c r="AG183" s="10"/>
-      <c r="AH183" s="10"/>
+      <c r="AG183" s="11"/>
+      <c r="AH183" s="11"/>
       <c r="AI183" s="10"/>
       <c r="AJ183" s="10"/>
       <c r="AK183" s="10"/>
       <c r="AL183" s="10"/>
-    </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM183" s="10"/>
+      <c r="AN183" s="10"/>
+    </row>
+    <row r="184" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8066,18 +8634,20 @@
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
-      <c r="AC184" s="11"/>
-      <c r="AD184" s="12"/>
+      <c r="AC184" s="5"/>
+      <c r="AD184" s="5"/>
       <c r="AE184" s="11"/>
-      <c r="AF184" s="11"/>
-      <c r="AG184" s="10"/>
-      <c r="AH184" s="10"/>
+      <c r="AF184" s="12"/>
+      <c r="AG184" s="11"/>
+      <c r="AH184" s="11"/>
       <c r="AI184" s="10"/>
       <c r="AJ184" s="10"/>
       <c r="AK184" s="10"/>
       <c r="AL184" s="10"/>
-    </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM184" s="10"/>
+      <c r="AN184" s="10"/>
+    </row>
+    <row r="185" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="4"/>
       <c r="C185" s="2"/>
@@ -8106,18 +8676,20 @@
       <c r="Z185" s="5"/>
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
-      <c r="AC185" s="11"/>
-      <c r="AD185" s="12"/>
+      <c r="AC185" s="5"/>
+      <c r="AD185" s="5"/>
       <c r="AE185" s="11"/>
-      <c r="AF185" s="11"/>
-      <c r="AG185" s="10"/>
-      <c r="AH185" s="10"/>
+      <c r="AF185" s="12"/>
+      <c r="AG185" s="11"/>
+      <c r="AH185" s="11"/>
       <c r="AI185" s="10"/>
       <c r="AJ185" s="10"/>
       <c r="AK185" s="10"/>
       <c r="AL185" s="10"/>
-    </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM185" s="10"/>
+      <c r="AN185" s="10"/>
+    </row>
+    <row r="186" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -8146,18 +8718,20 @@
       <c r="Z186" s="5"/>
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
-      <c r="AC186" s="11"/>
-      <c r="AD186" s="12"/>
+      <c r="AC186" s="5"/>
+      <c r="AD186" s="5"/>
       <c r="AE186" s="11"/>
-      <c r="AF186" s="11"/>
-      <c r="AG186" s="10"/>
-      <c r="AH186" s="10"/>
+      <c r="AF186" s="12"/>
+      <c r="AG186" s="11"/>
+      <c r="AH186" s="11"/>
       <c r="AI186" s="10"/>
       <c r="AJ186" s="10"/>
       <c r="AK186" s="10"/>
       <c r="AL186" s="10"/>
-    </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM186" s="10"/>
+      <c r="AN186" s="10"/>
+    </row>
+    <row r="187" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -8186,18 +8760,20 @@
       <c r="Z187" s="5"/>
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
-      <c r="AC187" s="11"/>
-      <c r="AD187" s="11"/>
+      <c r="AC187" s="5"/>
+      <c r="AD187" s="5"/>
       <c r="AE187" s="11"/>
       <c r="AF187" s="11"/>
-      <c r="AG187" s="10"/>
-      <c r="AH187" s="10"/>
+      <c r="AG187" s="11"/>
+      <c r="AH187" s="11"/>
       <c r="AI187" s="10"/>
       <c r="AJ187" s="10"/>
       <c r="AK187" s="10"/>
       <c r="AL187" s="10"/>
-    </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM187" s="10"/>
+      <c r="AN187" s="10"/>
+    </row>
+    <row r="188" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -8226,18 +8802,20 @@
       <c r="Z188" s="5"/>
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
-      <c r="AC188" s="11"/>
-      <c r="AD188" s="11"/>
+      <c r="AC188" s="5"/>
+      <c r="AD188" s="5"/>
       <c r="AE188" s="11"/>
       <c r="AF188" s="11"/>
-      <c r="AG188" s="10"/>
-      <c r="AH188" s="10"/>
+      <c r="AG188" s="11"/>
+      <c r="AH188" s="11"/>
       <c r="AI188" s="10"/>
       <c r="AJ188" s="10"/>
       <c r="AK188" s="10"/>
       <c r="AL188" s="10"/>
-    </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM188" s="10"/>
+      <c r="AN188" s="10"/>
+    </row>
+    <row r="189" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="4"/>
       <c r="C189" s="2"/>
@@ -8266,18 +8844,20 @@
       <c r="Z189" s="5"/>
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
-      <c r="AC189" s="11"/>
-      <c r="AD189" s="11"/>
+      <c r="AC189" s="5"/>
+      <c r="AD189" s="5"/>
       <c r="AE189" s="11"/>
       <c r="AF189" s="11"/>
-      <c r="AG189" s="10"/>
-      <c r="AH189" s="10"/>
+      <c r="AG189" s="11"/>
+      <c r="AH189" s="11"/>
       <c r="AI189" s="10"/>
       <c r="AJ189" s="10"/>
       <c r="AK189" s="10"/>
       <c r="AL189" s="10"/>
-    </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM189" s="10"/>
+      <c r="AN189" s="10"/>
+    </row>
+    <row r="190" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -8306,18 +8886,20 @@
       <c r="Z190" s="5"/>
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
-      <c r="AC190" s="11"/>
-      <c r="AD190" s="11"/>
+      <c r="AC190" s="5"/>
+      <c r="AD190" s="5"/>
       <c r="AE190" s="11"/>
       <c r="AF190" s="11"/>
-      <c r="AG190" s="10"/>
-      <c r="AH190" s="10"/>
+      <c r="AG190" s="11"/>
+      <c r="AH190" s="11"/>
       <c r="AI190" s="10"/>
       <c r="AJ190" s="10"/>
       <c r="AK190" s="10"/>
       <c r="AL190" s="10"/>
-    </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM190" s="10"/>
+      <c r="AN190" s="10"/>
+    </row>
+    <row r="191" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -8346,18 +8928,20 @@
       <c r="Z191" s="5"/>
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
-      <c r="AC191" s="11"/>
-      <c r="AD191" s="12"/>
+      <c r="AC191" s="5"/>
+      <c r="AD191" s="5"/>
       <c r="AE191" s="11"/>
-      <c r="AF191" s="11"/>
-      <c r="AG191" s="10"/>
-      <c r="AH191" s="10"/>
+      <c r="AF191" s="12"/>
+      <c r="AG191" s="11"/>
+      <c r="AH191" s="11"/>
       <c r="AI191" s="10"/>
       <c r="AJ191" s="10"/>
       <c r="AK191" s="10"/>
       <c r="AL191" s="10"/>
-    </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM191" s="10"/>
+      <c r="AN191" s="10"/>
+    </row>
+    <row r="192" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -8386,18 +8970,20 @@
       <c r="Z192" s="5"/>
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
-      <c r="AC192" s="11"/>
-      <c r="AD192" s="12"/>
+      <c r="AC192" s="5"/>
+      <c r="AD192" s="5"/>
       <c r="AE192" s="11"/>
-      <c r="AF192" s="11"/>
-      <c r="AG192" s="10"/>
-      <c r="AH192" s="10"/>
+      <c r="AF192" s="12"/>
+      <c r="AG192" s="11"/>
+      <c r="AH192" s="11"/>
       <c r="AI192" s="10"/>
       <c r="AJ192" s="10"/>
       <c r="AK192" s="10"/>
       <c r="AL192" s="10"/>
-    </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM192" s="10"/>
+      <c r="AN192" s="10"/>
+    </row>
+    <row r="193" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="4"/>
       <c r="C193" s="2"/>
@@ -8426,18 +9012,20 @@
       <c r="Z193" s="5"/>
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
-      <c r="AC193" s="11"/>
-      <c r="AD193" s="12"/>
+      <c r="AC193" s="5"/>
+      <c r="AD193" s="5"/>
       <c r="AE193" s="11"/>
-      <c r="AF193" s="11"/>
-      <c r="AG193" s="10"/>
-      <c r="AH193" s="10"/>
+      <c r="AF193" s="12"/>
+      <c r="AG193" s="11"/>
+      <c r="AH193" s="11"/>
       <c r="AI193" s="10"/>
       <c r="AJ193" s="10"/>
       <c r="AK193" s="10"/>
       <c r="AL193" s="10"/>
-    </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM193" s="10"/>
+      <c r="AN193" s="10"/>
+    </row>
+    <row r="194" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -8466,18 +9054,20 @@
       <c r="Z194" s="5"/>
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
-      <c r="AC194" s="11"/>
-      <c r="AD194" s="12"/>
+      <c r="AC194" s="5"/>
+      <c r="AD194" s="5"/>
       <c r="AE194" s="11"/>
-      <c r="AF194" s="11"/>
-      <c r="AG194" s="10"/>
-      <c r="AH194" s="10"/>
+      <c r="AF194" s="12"/>
+      <c r="AG194" s="11"/>
+      <c r="AH194" s="11"/>
       <c r="AI194" s="10"/>
       <c r="AJ194" s="10"/>
       <c r="AK194" s="10"/>
       <c r="AL194" s="10"/>
-    </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM194" s="10"/>
+      <c r="AN194" s="10"/>
+    </row>
+    <row r="195" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -8506,18 +9096,20 @@
       <c r="Z195" s="5"/>
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
-      <c r="AC195" s="11"/>
-      <c r="AD195" s="12"/>
+      <c r="AC195" s="5"/>
+      <c r="AD195" s="5"/>
       <c r="AE195" s="11"/>
-      <c r="AF195" s="11"/>
-      <c r="AG195" s="10"/>
-      <c r="AH195" s="10"/>
+      <c r="AF195" s="12"/>
+      <c r="AG195" s="11"/>
+      <c r="AH195" s="11"/>
       <c r="AI195" s="10"/>
       <c r="AJ195" s="10"/>
       <c r="AK195" s="10"/>
       <c r="AL195" s="10"/>
-    </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM195" s="10"/>
+      <c r="AN195" s="10"/>
+    </row>
+    <row r="196" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -8546,18 +9138,20 @@
       <c r="Z196" s="5"/>
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
-      <c r="AC196" s="11"/>
-      <c r="AD196" s="11"/>
+      <c r="AC196" s="5"/>
+      <c r="AD196" s="5"/>
       <c r="AE196" s="11"/>
       <c r="AF196" s="11"/>
-      <c r="AG196" s="10"/>
-      <c r="AH196" s="10"/>
+      <c r="AG196" s="11"/>
+      <c r="AH196" s="11"/>
       <c r="AI196" s="10"/>
       <c r="AJ196" s="10"/>
       <c r="AK196" s="10"/>
       <c r="AL196" s="10"/>
-    </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM196" s="10"/>
+      <c r="AN196" s="10"/>
+    </row>
+    <row r="197" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="4"/>
       <c r="C197" s="2"/>
@@ -8586,18 +9180,20 @@
       <c r="Z197" s="5"/>
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
-      <c r="AC197" s="11"/>
-      <c r="AD197" s="12"/>
+      <c r="AC197" s="5"/>
+      <c r="AD197" s="5"/>
       <c r="AE197" s="11"/>
-      <c r="AF197" s="11"/>
-      <c r="AG197" s="10"/>
-      <c r="AH197" s="10"/>
+      <c r="AF197" s="12"/>
+      <c r="AG197" s="11"/>
+      <c r="AH197" s="11"/>
       <c r="AI197" s="10"/>
       <c r="AJ197" s="10"/>
       <c r="AK197" s="10"/>
       <c r="AL197" s="10"/>
-    </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM197" s="10"/>
+      <c r="AN197" s="10"/>
+    </row>
+    <row r="198" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -8626,18 +9222,20 @@
       <c r="Z198" s="5"/>
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
-      <c r="AC198" s="11"/>
-      <c r="AD198" s="12"/>
+      <c r="AC198" s="5"/>
+      <c r="AD198" s="5"/>
       <c r="AE198" s="11"/>
-      <c r="AF198" s="11"/>
-      <c r="AG198" s="10"/>
-      <c r="AH198" s="10"/>
+      <c r="AF198" s="12"/>
+      <c r="AG198" s="11"/>
+      <c r="AH198" s="11"/>
       <c r="AI198" s="10"/>
       <c r="AJ198" s="10"/>
       <c r="AK198" s="10"/>
       <c r="AL198" s="10"/>
-    </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM198" s="10"/>
+      <c r="AN198" s="10"/>
+    </row>
+    <row r="199" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -8666,18 +9264,20 @@
       <c r="Z199" s="5"/>
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
-      <c r="AC199" s="11"/>
-      <c r="AD199" s="12"/>
+      <c r="AC199" s="5"/>
+      <c r="AD199" s="5"/>
       <c r="AE199" s="11"/>
-      <c r="AF199" s="11"/>
-      <c r="AG199" s="10"/>
-      <c r="AH199" s="10"/>
+      <c r="AF199" s="12"/>
+      <c r="AG199" s="11"/>
+      <c r="AH199" s="11"/>
       <c r="AI199" s="10"/>
       <c r="AJ199" s="10"/>
       <c r="AK199" s="10"/>
       <c r="AL199" s="10"/>
-    </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM199" s="10"/>
+      <c r="AN199" s="10"/>
+    </row>
+    <row r="200" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -8706,18 +9306,20 @@
       <c r="Z200" s="5"/>
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
-      <c r="AC200" s="11"/>
-      <c r="AD200" s="12"/>
+      <c r="AC200" s="5"/>
+      <c r="AD200" s="5"/>
       <c r="AE200" s="11"/>
-      <c r="AF200" s="11"/>
-      <c r="AG200" s="10"/>
-      <c r="AH200" s="10"/>
+      <c r="AF200" s="12"/>
+      <c r="AG200" s="11"/>
+      <c r="AH200" s="11"/>
       <c r="AI200" s="10"/>
       <c r="AJ200" s="10"/>
       <c r="AK200" s="10"/>
       <c r="AL200" s="10"/>
-    </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM200" s="10"/>
+      <c r="AN200" s="10"/>
+    </row>
+    <row r="201" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="4"/>
       <c r="C201" s="2"/>
@@ -8746,18 +9348,20 @@
       <c r="Z201" s="5"/>
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
-      <c r="AC201" s="11"/>
-      <c r="AD201" s="12"/>
+      <c r="AC201" s="5"/>
+      <c r="AD201" s="5"/>
       <c r="AE201" s="11"/>
-      <c r="AF201" s="11"/>
-      <c r="AG201" s="10"/>
-      <c r="AH201" s="10"/>
+      <c r="AF201" s="12"/>
+      <c r="AG201" s="11"/>
+      <c r="AH201" s="11"/>
       <c r="AI201" s="10"/>
       <c r="AJ201" s="10"/>
       <c r="AK201" s="10"/>
       <c r="AL201" s="10"/>
-    </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM201" s="10"/>
+      <c r="AN201" s="10"/>
+    </row>
+    <row r="202" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -8786,18 +9390,20 @@
       <c r="Z202" s="5"/>
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
-      <c r="AC202" s="11"/>
-      <c r="AD202" s="12"/>
+      <c r="AC202" s="5"/>
+      <c r="AD202" s="5"/>
       <c r="AE202" s="11"/>
-      <c r="AF202" s="11"/>
-      <c r="AG202" s="10"/>
-      <c r="AH202" s="10"/>
+      <c r="AF202" s="12"/>
+      <c r="AG202" s="11"/>
+      <c r="AH202" s="11"/>
       <c r="AI202" s="10"/>
       <c r="AJ202" s="10"/>
       <c r="AK202" s="10"/>
       <c r="AL202" s="10"/>
-    </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM202" s="10"/>
+      <c r="AN202" s="10"/>
+    </row>
+    <row r="203" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8826,18 +9432,20 @@
       <c r="Z203" s="5"/>
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
-      <c r="AC203" s="11"/>
-      <c r="AD203" s="11"/>
+      <c r="AC203" s="5"/>
+      <c r="AD203" s="5"/>
       <c r="AE203" s="11"/>
       <c r="AF203" s="11"/>
-      <c r="AG203" s="10"/>
-      <c r="AH203" s="10"/>
+      <c r="AG203" s="11"/>
+      <c r="AH203" s="11"/>
       <c r="AI203" s="10"/>
       <c r="AJ203" s="10"/>
       <c r="AK203" s="10"/>
       <c r="AL203" s="10"/>
-    </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM203" s="10"/>
+      <c r="AN203" s="10"/>
+    </row>
+    <row r="204" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8866,18 +9474,20 @@
       <c r="Z204" s="5"/>
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
-      <c r="AC204" s="11"/>
-      <c r="AD204" s="12"/>
+      <c r="AC204" s="5"/>
+      <c r="AD204" s="5"/>
       <c r="AE204" s="11"/>
-      <c r="AF204" s="11"/>
-      <c r="AG204" s="10"/>
-      <c r="AH204" s="10"/>
+      <c r="AF204" s="12"/>
+      <c r="AG204" s="11"/>
+      <c r="AH204" s="11"/>
       <c r="AI204" s="10"/>
       <c r="AJ204" s="10"/>
       <c r="AK204" s="10"/>
       <c r="AL204" s="10"/>
-    </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM204" s="10"/>
+      <c r="AN204" s="10"/>
+    </row>
+    <row r="205" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="4"/>
       <c r="C205" s="2"/>
@@ -8906,18 +9516,20 @@
       <c r="Z205" s="5"/>
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
-      <c r="AC205" s="11"/>
-      <c r="AD205" s="12"/>
+      <c r="AC205" s="5"/>
+      <c r="AD205" s="5"/>
       <c r="AE205" s="11"/>
-      <c r="AF205" s="11"/>
-      <c r="AG205" s="10"/>
-      <c r="AH205" s="10"/>
+      <c r="AF205" s="12"/>
+      <c r="AG205" s="11"/>
+      <c r="AH205" s="11"/>
       <c r="AI205" s="10"/>
       <c r="AJ205" s="10"/>
       <c r="AK205" s="10"/>
       <c r="AL205" s="10"/>
-    </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM205" s="10"/>
+      <c r="AN205" s="10"/>
+    </row>
+    <row r="206" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -8946,18 +9558,20 @@
       <c r="Z206" s="5"/>
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
-      <c r="AC206" s="11"/>
-      <c r="AD206" s="12"/>
+      <c r="AC206" s="5"/>
+      <c r="AD206" s="5"/>
       <c r="AE206" s="11"/>
-      <c r="AF206" s="11"/>
-      <c r="AG206" s="10"/>
-      <c r="AH206" s="10"/>
+      <c r="AF206" s="12"/>
+      <c r="AG206" s="11"/>
+      <c r="AH206" s="11"/>
       <c r="AI206" s="10"/>
       <c r="AJ206" s="10"/>
       <c r="AK206" s="10"/>
       <c r="AL206" s="10"/>
-    </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM206" s="10"/>
+      <c r="AN206" s="10"/>
+    </row>
+    <row r="207" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -8986,18 +9600,20 @@
       <c r="Z207" s="5"/>
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
-      <c r="AC207" s="11"/>
-      <c r="AD207" s="12"/>
+      <c r="AC207" s="5"/>
+      <c r="AD207" s="5"/>
       <c r="AE207" s="11"/>
-      <c r="AF207" s="11"/>
-      <c r="AG207" s="10"/>
-      <c r="AH207" s="10"/>
+      <c r="AF207" s="12"/>
+      <c r="AG207" s="11"/>
+      <c r="AH207" s="11"/>
       <c r="AI207" s="10"/>
       <c r="AJ207" s="10"/>
       <c r="AK207" s="10"/>
       <c r="AL207" s="10"/>
-    </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM207" s="10"/>
+      <c r="AN207" s="10"/>
+    </row>
+    <row r="208" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -9026,18 +9642,20 @@
       <c r="Z208" s="5"/>
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
-      <c r="AC208" s="11"/>
-      <c r="AD208" s="12"/>
+      <c r="AC208" s="5"/>
+      <c r="AD208" s="5"/>
       <c r="AE208" s="11"/>
-      <c r="AF208" s="11"/>
-      <c r="AG208" s="10"/>
-      <c r="AH208" s="10"/>
+      <c r="AF208" s="12"/>
+      <c r="AG208" s="11"/>
+      <c r="AH208" s="11"/>
       <c r="AI208" s="10"/>
       <c r="AJ208" s="10"/>
       <c r="AK208" s="10"/>
       <c r="AL208" s="10"/>
-    </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM208" s="10"/>
+      <c r="AN208" s="10"/>
+    </row>
+    <row r="209" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="4"/>
       <c r="C209" s="2"/>
@@ -9066,18 +9684,20 @@
       <c r="Z209" s="5"/>
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
-      <c r="AC209" s="11"/>
-      <c r="AD209" s="12"/>
+      <c r="AC209" s="5"/>
+      <c r="AD209" s="5"/>
       <c r="AE209" s="11"/>
-      <c r="AF209" s="11"/>
-      <c r="AG209" s="10"/>
-      <c r="AH209" s="10"/>
+      <c r="AF209" s="12"/>
+      <c r="AG209" s="11"/>
+      <c r="AH209" s="11"/>
       <c r="AI209" s="10"/>
       <c r="AJ209" s="10"/>
       <c r="AK209" s="10"/>
       <c r="AL209" s="10"/>
-    </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM209" s="10"/>
+      <c r="AN209" s="10"/>
+    </row>
+    <row r="210" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -9106,18 +9726,20 @@
       <c r="Z210" s="5"/>
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
-      <c r="AC210" s="11"/>
-      <c r="AD210" s="12"/>
+      <c r="AC210" s="5"/>
+      <c r="AD210" s="5"/>
       <c r="AE210" s="11"/>
-      <c r="AF210" s="11"/>
-      <c r="AG210" s="10"/>
-      <c r="AH210" s="10"/>
+      <c r="AF210" s="12"/>
+      <c r="AG210" s="11"/>
+      <c r="AH210" s="11"/>
       <c r="AI210" s="10"/>
       <c r="AJ210" s="10"/>
       <c r="AK210" s="10"/>
       <c r="AL210" s="10"/>
-    </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM210" s="10"/>
+      <c r="AN210" s="10"/>
+    </row>
+    <row r="211" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -9146,18 +9768,20 @@
       <c r="Z211" s="5"/>
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
-      <c r="AC211" s="11"/>
-      <c r="AD211" s="12"/>
+      <c r="AC211" s="5"/>
+      <c r="AD211" s="5"/>
       <c r="AE211" s="11"/>
-      <c r="AF211" s="11"/>
-      <c r="AG211" s="10"/>
-      <c r="AH211" s="10"/>
+      <c r="AF211" s="12"/>
+      <c r="AG211" s="11"/>
+      <c r="AH211" s="11"/>
       <c r="AI211" s="10"/>
       <c r="AJ211" s="10"/>
       <c r="AK211" s="10"/>
       <c r="AL211" s="10"/>
-    </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM211" s="10"/>
+      <c r="AN211" s="10"/>
+    </row>
+    <row r="212" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -9186,18 +9810,20 @@
       <c r="Z212" s="5"/>
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
-      <c r="AC212" s="11"/>
-      <c r="AD212" s="12"/>
+      <c r="AC212" s="5"/>
+      <c r="AD212" s="5"/>
       <c r="AE212" s="11"/>
-      <c r="AF212" s="11"/>
-      <c r="AG212" s="10"/>
-      <c r="AH212" s="10"/>
+      <c r="AF212" s="12"/>
+      <c r="AG212" s="11"/>
+      <c r="AH212" s="11"/>
       <c r="AI212" s="10"/>
       <c r="AJ212" s="10"/>
       <c r="AK212" s="10"/>
       <c r="AL212" s="10"/>
-    </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM212" s="10"/>
+      <c r="AN212" s="10"/>
+    </row>
+    <row r="213" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="4"/>
       <c r="C213" s="2"/>
@@ -9226,18 +9852,20 @@
       <c r="Z213" s="5"/>
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
-      <c r="AC213" s="11"/>
-      <c r="AD213" s="12"/>
+      <c r="AC213" s="5"/>
+      <c r="AD213" s="5"/>
       <c r="AE213" s="11"/>
-      <c r="AF213" s="11"/>
-      <c r="AG213" s="10"/>
-      <c r="AH213" s="10"/>
+      <c r="AF213" s="12"/>
+      <c r="AG213" s="11"/>
+      <c r="AH213" s="11"/>
       <c r="AI213" s="10"/>
       <c r="AJ213" s="10"/>
       <c r="AK213" s="10"/>
       <c r="AL213" s="10"/>
-    </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM213" s="10"/>
+      <c r="AN213" s="10"/>
+    </row>
+    <row r="214" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -9266,18 +9894,20 @@
       <c r="Z214" s="5"/>
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
-      <c r="AC214" s="11"/>
-      <c r="AD214" s="12"/>
+      <c r="AC214" s="5"/>
+      <c r="AD214" s="5"/>
       <c r="AE214" s="11"/>
-      <c r="AF214" s="11"/>
-      <c r="AG214" s="10"/>
-      <c r="AH214" s="10"/>
+      <c r="AF214" s="12"/>
+      <c r="AG214" s="11"/>
+      <c r="AH214" s="11"/>
       <c r="AI214" s="10"/>
       <c r="AJ214" s="10"/>
       <c r="AK214" s="10"/>
       <c r="AL214" s="10"/>
-    </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM214" s="10"/>
+      <c r="AN214" s="10"/>
+    </row>
+    <row r="215" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -9306,18 +9936,20 @@
       <c r="Z215" s="5"/>
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
-      <c r="AC215" s="11"/>
-      <c r="AD215" s="12"/>
+      <c r="AC215" s="5"/>
+      <c r="AD215" s="5"/>
       <c r="AE215" s="11"/>
-      <c r="AF215" s="11"/>
-      <c r="AG215" s="10"/>
-      <c r="AH215" s="10"/>
+      <c r="AF215" s="12"/>
+      <c r="AG215" s="11"/>
+      <c r="AH215" s="11"/>
       <c r="AI215" s="10"/>
       <c r="AJ215" s="10"/>
       <c r="AK215" s="10"/>
       <c r="AL215" s="10"/>
-    </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM215" s="10"/>
+      <c r="AN215" s="10"/>
+    </row>
+    <row r="216" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -9346,18 +9978,20 @@
       <c r="Z216" s="5"/>
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
-      <c r="AC216" s="11"/>
-      <c r="AD216" s="11"/>
+      <c r="AC216" s="5"/>
+      <c r="AD216" s="5"/>
       <c r="AE216" s="11"/>
       <c r="AF216" s="11"/>
-      <c r="AG216" s="10"/>
-      <c r="AH216" s="10"/>
+      <c r="AG216" s="11"/>
+      <c r="AH216" s="11"/>
       <c r="AI216" s="10"/>
       <c r="AJ216" s="10"/>
       <c r="AK216" s="10"/>
       <c r="AL216" s="10"/>
-    </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM216" s="10"/>
+      <c r="AN216" s="10"/>
+    </row>
+    <row r="217" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="4"/>
       <c r="C217" s="2"/>
@@ -9386,18 +10020,20 @@
       <c r="Z217" s="5"/>
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
-      <c r="AC217" s="11"/>
-      <c r="AD217" s="12"/>
+      <c r="AC217" s="5"/>
+      <c r="AD217" s="5"/>
       <c r="AE217" s="11"/>
-      <c r="AF217" s="11"/>
-      <c r="AG217" s="10"/>
-      <c r="AH217" s="10"/>
+      <c r="AF217" s="12"/>
+      <c r="AG217" s="11"/>
+      <c r="AH217" s="11"/>
       <c r="AI217" s="10"/>
       <c r="AJ217" s="10"/>
       <c r="AK217" s="10"/>
       <c r="AL217" s="10"/>
-    </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM217" s="10"/>
+      <c r="AN217" s="10"/>
+    </row>
+    <row r="218" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -9426,18 +10062,20 @@
       <c r="Z218" s="5"/>
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
-      <c r="AC218" s="11"/>
-      <c r="AD218" s="12"/>
+      <c r="AC218" s="5"/>
+      <c r="AD218" s="5"/>
       <c r="AE218" s="11"/>
-      <c r="AF218" s="11"/>
-      <c r="AG218" s="10"/>
-      <c r="AH218" s="10"/>
+      <c r="AF218" s="12"/>
+      <c r="AG218" s="11"/>
+      <c r="AH218" s="11"/>
       <c r="AI218" s="10"/>
       <c r="AJ218" s="10"/>
       <c r="AK218" s="10"/>
       <c r="AL218" s="10"/>
-    </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM218" s="10"/>
+      <c r="AN218" s="10"/>
+    </row>
+    <row r="219" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -9466,18 +10104,20 @@
       <c r="Z219" s="5"/>
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
-      <c r="AC219" s="11"/>
-      <c r="AD219" s="12"/>
+      <c r="AC219" s="5"/>
+      <c r="AD219" s="5"/>
       <c r="AE219" s="11"/>
-      <c r="AF219" s="11"/>
-      <c r="AG219" s="10"/>
-      <c r="AH219" s="10"/>
+      <c r="AF219" s="12"/>
+      <c r="AG219" s="11"/>
+      <c r="AH219" s="11"/>
       <c r="AI219" s="10"/>
       <c r="AJ219" s="10"/>
       <c r="AK219" s="10"/>
       <c r="AL219" s="10"/>
-    </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM219" s="10"/>
+      <c r="AN219" s="10"/>
+    </row>
+    <row r="220" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -9506,18 +10146,20 @@
       <c r="Z220" s="5"/>
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
-      <c r="AC220" s="11"/>
-      <c r="AD220" s="11"/>
+      <c r="AC220" s="5"/>
+      <c r="AD220" s="5"/>
       <c r="AE220" s="11"/>
       <c r="AF220" s="11"/>
-      <c r="AG220" s="10"/>
-      <c r="AH220" s="10"/>
+      <c r="AG220" s="11"/>
+      <c r="AH220" s="11"/>
       <c r="AI220" s="10"/>
       <c r="AJ220" s="10"/>
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
-    </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM220" s="10"/>
+      <c r="AN220" s="10"/>
+    </row>
+    <row r="221" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="4"/>
       <c r="C221" s="2"/>
@@ -9546,18 +10188,20 @@
       <c r="Z221" s="5"/>
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
-      <c r="AC221" s="11"/>
-      <c r="AD221" s="11"/>
+      <c r="AC221" s="5"/>
+      <c r="AD221" s="5"/>
       <c r="AE221" s="11"/>
       <c r="AF221" s="11"/>
-      <c r="AG221" s="10"/>
-      <c r="AH221" s="10"/>
+      <c r="AG221" s="11"/>
+      <c r="AH221" s="11"/>
       <c r="AI221" s="10"/>
       <c r="AJ221" s="10"/>
       <c r="AK221" s="10"/>
       <c r="AL221" s="10"/>
-    </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM221" s="10"/>
+      <c r="AN221" s="10"/>
+    </row>
+    <row r="222" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -9586,18 +10230,20 @@
       <c r="Z222" s="5"/>
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
-      <c r="AC222" s="11"/>
-      <c r="AD222" s="12"/>
+      <c r="AC222" s="5"/>
+      <c r="AD222" s="5"/>
       <c r="AE222" s="11"/>
-      <c r="AF222" s="11"/>
-      <c r="AG222" s="10"/>
-      <c r="AH222" s="10"/>
+      <c r="AF222" s="12"/>
+      <c r="AG222" s="11"/>
+      <c r="AH222" s="11"/>
       <c r="AI222" s="10"/>
       <c r="AJ222" s="10"/>
       <c r="AK222" s="10"/>
       <c r="AL222" s="10"/>
-    </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM222" s="10"/>
+      <c r="AN222" s="10"/>
+    </row>
+    <row r="223" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -9626,18 +10272,20 @@
       <c r="Z223" s="5"/>
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
-      <c r="AC223" s="11"/>
-      <c r="AD223" s="11"/>
+      <c r="AC223" s="5"/>
+      <c r="AD223" s="5"/>
       <c r="AE223" s="11"/>
       <c r="AF223" s="11"/>
-      <c r="AG223" s="10"/>
-      <c r="AH223" s="10"/>
+      <c r="AG223" s="11"/>
+      <c r="AH223" s="11"/>
       <c r="AI223" s="10"/>
       <c r="AJ223" s="10"/>
       <c r="AK223" s="10"/>
       <c r="AL223" s="10"/>
-    </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM223" s="10"/>
+      <c r="AN223" s="10"/>
+    </row>
+    <row r="224" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -9666,18 +10314,20 @@
       <c r="Z224" s="5"/>
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
-      <c r="AC224" s="11"/>
-      <c r="AD224" s="12"/>
+      <c r="AC224" s="5"/>
+      <c r="AD224" s="5"/>
       <c r="AE224" s="11"/>
-      <c r="AF224" s="11"/>
-      <c r="AG224" s="10"/>
-      <c r="AH224" s="10"/>
+      <c r="AF224" s="12"/>
+      <c r="AG224" s="11"/>
+      <c r="AH224" s="11"/>
       <c r="AI224" s="10"/>
       <c r="AJ224" s="10"/>
       <c r="AK224" s="10"/>
       <c r="AL224" s="10"/>
-    </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM224" s="10"/>
+      <c r="AN224" s="10"/>
+    </row>
+    <row r="225" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="4"/>
       <c r="C225" s="2"/>
@@ -9706,18 +10356,20 @@
       <c r="Z225" s="5"/>
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
-      <c r="AC225" s="11"/>
-      <c r="AD225" s="12"/>
+      <c r="AC225" s="5"/>
+      <c r="AD225" s="5"/>
       <c r="AE225" s="11"/>
-      <c r="AF225" s="11"/>
-      <c r="AG225" s="10"/>
-      <c r="AH225" s="10"/>
+      <c r="AF225" s="12"/>
+      <c r="AG225" s="11"/>
+      <c r="AH225" s="11"/>
       <c r="AI225" s="10"/>
       <c r="AJ225" s="10"/>
       <c r="AK225" s="10"/>
       <c r="AL225" s="10"/>
-    </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM225" s="10"/>
+      <c r="AN225" s="10"/>
+    </row>
+    <row r="226" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -9746,18 +10398,20 @@
       <c r="Z226" s="5"/>
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
-      <c r="AC226" s="11"/>
-      <c r="AD226" s="12"/>
+      <c r="AC226" s="5"/>
+      <c r="AD226" s="5"/>
       <c r="AE226" s="11"/>
-      <c r="AF226" s="11"/>
-      <c r="AG226" s="10"/>
-      <c r="AH226" s="10"/>
+      <c r="AF226" s="12"/>
+      <c r="AG226" s="11"/>
+      <c r="AH226" s="11"/>
       <c r="AI226" s="10"/>
       <c r="AJ226" s="10"/>
       <c r="AK226" s="10"/>
       <c r="AL226" s="10"/>
-    </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM226" s="10"/>
+      <c r="AN226" s="10"/>
+    </row>
+    <row r="227" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -9786,18 +10440,20 @@
       <c r="Z227" s="5"/>
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
-      <c r="AC227" s="11"/>
-      <c r="AD227" s="12"/>
+      <c r="AC227" s="5"/>
+      <c r="AD227" s="5"/>
       <c r="AE227" s="11"/>
-      <c r="AF227" s="11"/>
-      <c r="AG227" s="10"/>
-      <c r="AH227" s="10"/>
+      <c r="AF227" s="12"/>
+      <c r="AG227" s="11"/>
+      <c r="AH227" s="11"/>
       <c r="AI227" s="10"/>
       <c r="AJ227" s="10"/>
       <c r="AK227" s="10"/>
       <c r="AL227" s="10"/>
-    </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM227" s="10"/>
+      <c r="AN227" s="10"/>
+    </row>
+    <row r="228" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -9826,18 +10482,20 @@
       <c r="Z228" s="5"/>
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
-      <c r="AC228" s="11"/>
-      <c r="AD228" s="12"/>
+      <c r="AC228" s="5"/>
+      <c r="AD228" s="5"/>
       <c r="AE228" s="11"/>
-      <c r="AF228" s="11"/>
-      <c r="AG228" s="10"/>
-      <c r="AH228" s="10"/>
+      <c r="AF228" s="12"/>
+      <c r="AG228" s="11"/>
+      <c r="AH228" s="11"/>
       <c r="AI228" s="10"/>
       <c r="AJ228" s="10"/>
       <c r="AK228" s="10"/>
       <c r="AL228" s="10"/>
-    </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM228" s="10"/>
+      <c r="AN228" s="10"/>
+    </row>
+    <row r="229" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="4"/>
       <c r="C229" s="2"/>
@@ -9866,18 +10524,20 @@
       <c r="Z229" s="5"/>
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
-      <c r="AC229" s="11"/>
-      <c r="AD229" s="12"/>
+      <c r="AC229" s="5"/>
+      <c r="AD229" s="5"/>
       <c r="AE229" s="11"/>
-      <c r="AF229" s="11"/>
-      <c r="AG229" s="10"/>
-      <c r="AH229" s="10"/>
+      <c r="AF229" s="12"/>
+      <c r="AG229" s="11"/>
+      <c r="AH229" s="11"/>
       <c r="AI229" s="10"/>
       <c r="AJ229" s="10"/>
       <c r="AK229" s="10"/>
       <c r="AL229" s="10"/>
-    </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM229" s="10"/>
+      <c r="AN229" s="10"/>
+    </row>
+    <row r="230" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -9906,18 +10566,20 @@
       <c r="Z230" s="5"/>
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
-      <c r="AC230" s="11"/>
-      <c r="AD230" s="12"/>
+      <c r="AC230" s="5"/>
+      <c r="AD230" s="5"/>
       <c r="AE230" s="11"/>
-      <c r="AF230" s="11"/>
-      <c r="AG230" s="10"/>
-      <c r="AH230" s="10"/>
+      <c r="AF230" s="12"/>
+      <c r="AG230" s="11"/>
+      <c r="AH230" s="11"/>
       <c r="AI230" s="10"/>
       <c r="AJ230" s="10"/>
       <c r="AK230" s="10"/>
       <c r="AL230" s="10"/>
-    </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM230" s="10"/>
+      <c r="AN230" s="10"/>
+    </row>
+    <row r="231" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -9946,18 +10608,20 @@
       <c r="Z231" s="5"/>
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
-      <c r="AC231" s="11"/>
-      <c r="AD231" s="12"/>
+      <c r="AC231" s="5"/>
+      <c r="AD231" s="5"/>
       <c r="AE231" s="11"/>
-      <c r="AF231" s="11"/>
-      <c r="AG231" s="10"/>
-      <c r="AH231" s="10"/>
+      <c r="AF231" s="12"/>
+      <c r="AG231" s="11"/>
+      <c r="AH231" s="11"/>
       <c r="AI231" s="10"/>
       <c r="AJ231" s="10"/>
       <c r="AK231" s="10"/>
       <c r="AL231" s="10"/>
-    </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM231" s="10"/>
+      <c r="AN231" s="10"/>
+    </row>
+    <row r="232" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -9986,18 +10650,20 @@
       <c r="Z232" s="5"/>
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
-      <c r="AC232" s="11"/>
-      <c r="AD232" s="12"/>
+      <c r="AC232" s="5"/>
+      <c r="AD232" s="5"/>
       <c r="AE232" s="11"/>
-      <c r="AF232" s="11"/>
-      <c r="AG232" s="10"/>
-      <c r="AH232" s="10"/>
+      <c r="AF232" s="12"/>
+      <c r="AG232" s="11"/>
+      <c r="AH232" s="11"/>
       <c r="AI232" s="10"/>
       <c r="AJ232" s="10"/>
       <c r="AK232" s="10"/>
       <c r="AL232" s="10"/>
-    </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM232" s="10"/>
+      <c r="AN232" s="10"/>
+    </row>
+    <row r="233" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="4"/>
       <c r="C233" s="2"/>
@@ -10026,18 +10692,20 @@
       <c r="Z233" s="5"/>
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
-      <c r="AC233" s="11"/>
-      <c r="AD233" s="12"/>
+      <c r="AC233" s="5"/>
+      <c r="AD233" s="5"/>
       <c r="AE233" s="11"/>
-      <c r="AF233" s="11"/>
-      <c r="AG233" s="10"/>
-      <c r="AH233" s="10"/>
+      <c r="AF233" s="12"/>
+      <c r="AG233" s="11"/>
+      <c r="AH233" s="11"/>
       <c r="AI233" s="10"/>
       <c r="AJ233" s="10"/>
       <c r="AK233" s="10"/>
       <c r="AL233" s="10"/>
-    </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM233" s="10"/>
+      <c r="AN233" s="10"/>
+    </row>
+    <row r="234" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -10066,18 +10734,20 @@
       <c r="Z234" s="5"/>
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
-      <c r="AC234" s="11"/>
-      <c r="AD234" s="12"/>
+      <c r="AC234" s="5"/>
+      <c r="AD234" s="5"/>
       <c r="AE234" s="11"/>
-      <c r="AF234" s="11"/>
-      <c r="AG234" s="10"/>
-      <c r="AH234" s="10"/>
+      <c r="AF234" s="12"/>
+      <c r="AG234" s="11"/>
+      <c r="AH234" s="11"/>
       <c r="AI234" s="10"/>
       <c r="AJ234" s="10"/>
       <c r="AK234" s="10"/>
       <c r="AL234" s="10"/>
-    </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM234" s="10"/>
+      <c r="AN234" s="10"/>
+    </row>
+    <row r="235" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -10106,18 +10776,20 @@
       <c r="Z235" s="5"/>
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
-      <c r="AC235" s="11"/>
-      <c r="AD235" s="12"/>
+      <c r="AC235" s="5"/>
+      <c r="AD235" s="5"/>
       <c r="AE235" s="11"/>
-      <c r="AF235" s="11"/>
-      <c r="AG235" s="10"/>
-      <c r="AH235" s="10"/>
+      <c r="AF235" s="12"/>
+      <c r="AG235" s="11"/>
+      <c r="AH235" s="11"/>
       <c r="AI235" s="10"/>
       <c r="AJ235" s="10"/>
       <c r="AK235" s="10"/>
       <c r="AL235" s="10"/>
-    </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM235" s="10"/>
+      <c r="AN235" s="10"/>
+    </row>
+    <row r="236" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -10146,18 +10818,20 @@
       <c r="Z236" s="5"/>
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
-      <c r="AC236" s="11"/>
-      <c r="AD236" s="12"/>
+      <c r="AC236" s="5"/>
+      <c r="AD236" s="5"/>
       <c r="AE236" s="11"/>
-      <c r="AF236" s="11"/>
-      <c r="AG236" s="10"/>
-      <c r="AH236" s="10"/>
+      <c r="AF236" s="12"/>
+      <c r="AG236" s="11"/>
+      <c r="AH236" s="11"/>
       <c r="AI236" s="10"/>
       <c r="AJ236" s="10"/>
       <c r="AK236" s="10"/>
       <c r="AL236" s="10"/>
-    </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM236" s="10"/>
+      <c r="AN236" s="10"/>
+    </row>
+    <row r="237" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="4"/>
       <c r="C237" s="2"/>
@@ -10186,18 +10860,20 @@
       <c r="Z237" s="5"/>
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
-      <c r="AC237" s="11"/>
-      <c r="AD237" s="12"/>
-      <c r="AE237" s="14"/>
-      <c r="AF237" s="11"/>
-      <c r="AG237" s="10"/>
-      <c r="AH237" s="10"/>
+      <c r="AC237" s="5"/>
+      <c r="AD237" s="5"/>
+      <c r="AE237" s="11"/>
+      <c r="AF237" s="12"/>
+      <c r="AG237" s="14"/>
+      <c r="AH237" s="11"/>
       <c r="AI237" s="10"/>
       <c r="AJ237" s="10"/>
       <c r="AK237" s="10"/>
       <c r="AL237" s="10"/>
-    </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM237" s="10"/>
+      <c r="AN237" s="10"/>
+    </row>
+    <row r="238" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -10226,18 +10902,20 @@
       <c r="Z238" s="5"/>
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
-      <c r="AC238" s="11"/>
-      <c r="AD238" s="12"/>
+      <c r="AC238" s="5"/>
+      <c r="AD238" s="5"/>
       <c r="AE238" s="11"/>
-      <c r="AF238" s="11"/>
-      <c r="AG238" s="10"/>
-      <c r="AH238" s="10"/>
+      <c r="AF238" s="12"/>
+      <c r="AG238" s="11"/>
+      <c r="AH238" s="11"/>
       <c r="AI238" s="10"/>
       <c r="AJ238" s="10"/>
       <c r="AK238" s="10"/>
       <c r="AL238" s="10"/>
-    </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM238" s="10"/>
+      <c r="AN238" s="10"/>
+    </row>
+    <row r="239" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -10266,18 +10944,20 @@
       <c r="Z239" s="5"/>
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
-      <c r="AC239" s="11"/>
-      <c r="AD239" s="11"/>
+      <c r="AC239" s="5"/>
+      <c r="AD239" s="5"/>
       <c r="AE239" s="11"/>
       <c r="AF239" s="11"/>
-      <c r="AG239" s="10"/>
-      <c r="AH239" s="10"/>
+      <c r="AG239" s="11"/>
+      <c r="AH239" s="11"/>
       <c r="AI239" s="10"/>
       <c r="AJ239" s="10"/>
       <c r="AK239" s="10"/>
       <c r="AL239" s="10"/>
-    </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM239" s="10"/>
+      <c r="AN239" s="10"/>
+    </row>
+    <row r="240" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -10306,18 +10986,20 @@
       <c r="Z240" s="5"/>
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
-      <c r="AC240" s="11"/>
-      <c r="AD240" s="12"/>
+      <c r="AC240" s="5"/>
+      <c r="AD240" s="5"/>
       <c r="AE240" s="11"/>
-      <c r="AF240" s="11"/>
-      <c r="AG240" s="10"/>
-      <c r="AH240" s="10"/>
+      <c r="AF240" s="12"/>
+      <c r="AG240" s="11"/>
+      <c r="AH240" s="11"/>
       <c r="AI240" s="10"/>
       <c r="AJ240" s="10"/>
       <c r="AK240" s="10"/>
       <c r="AL240" s="10"/>
-    </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM240" s="10"/>
+      <c r="AN240" s="10"/>
+    </row>
+    <row r="241" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="4"/>
       <c r="C241" s="2"/>
@@ -10346,18 +11028,20 @@
       <c r="Z241" s="5"/>
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
-      <c r="AC241" s="11"/>
-      <c r="AD241" s="12"/>
+      <c r="AC241" s="5"/>
+      <c r="AD241" s="5"/>
       <c r="AE241" s="11"/>
-      <c r="AF241" s="11"/>
-      <c r="AG241" s="10"/>
-      <c r="AH241" s="10"/>
+      <c r="AF241" s="12"/>
+      <c r="AG241" s="11"/>
+      <c r="AH241" s="11"/>
       <c r="AI241" s="10"/>
       <c r="AJ241" s="10"/>
       <c r="AK241" s="10"/>
       <c r="AL241" s="10"/>
-    </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM241" s="10"/>
+      <c r="AN241" s="10"/>
+    </row>
+    <row r="242" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -10386,18 +11070,20 @@
       <c r="Z242" s="5"/>
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
-      <c r="AC242" s="11"/>
-      <c r="AD242" s="12"/>
+      <c r="AC242" s="5"/>
+      <c r="AD242" s="5"/>
       <c r="AE242" s="11"/>
-      <c r="AF242" s="11"/>
-      <c r="AG242" s="10"/>
-      <c r="AH242" s="10"/>
+      <c r="AF242" s="12"/>
+      <c r="AG242" s="11"/>
+      <c r="AH242" s="11"/>
       <c r="AI242" s="10"/>
       <c r="AJ242" s="10"/>
       <c r="AK242" s="10"/>
       <c r="AL242" s="10"/>
-    </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM242" s="10"/>
+      <c r="AN242" s="10"/>
+    </row>
+    <row r="243" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -10426,18 +11112,20 @@
       <c r="Z243" s="5"/>
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
-      <c r="AC243" s="11"/>
-      <c r="AD243" s="12"/>
+      <c r="AC243" s="5"/>
+      <c r="AD243" s="5"/>
       <c r="AE243" s="11"/>
-      <c r="AF243" s="11"/>
-      <c r="AG243" s="10"/>
-      <c r="AH243" s="10"/>
+      <c r="AF243" s="12"/>
+      <c r="AG243" s="11"/>
+      <c r="AH243" s="11"/>
       <c r="AI243" s="10"/>
       <c r="AJ243" s="10"/>
       <c r="AK243" s="10"/>
       <c r="AL243" s="10"/>
-    </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM243" s="10"/>
+      <c r="AN243" s="10"/>
+    </row>
+    <row r="244" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -10466,18 +11154,20 @@
       <c r="Z244" s="5"/>
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
-      <c r="AC244" s="11"/>
-      <c r="AD244" s="12"/>
+      <c r="AC244" s="5"/>
+      <c r="AD244" s="5"/>
       <c r="AE244" s="11"/>
-      <c r="AF244" s="11"/>
-      <c r="AG244" s="10"/>
-      <c r="AH244" s="10"/>
+      <c r="AF244" s="12"/>
+      <c r="AG244" s="11"/>
+      <c r="AH244" s="11"/>
       <c r="AI244" s="10"/>
       <c r="AJ244" s="10"/>
       <c r="AK244" s="10"/>
       <c r="AL244" s="10"/>
-    </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM244" s="10"/>
+      <c r="AN244" s="10"/>
+    </row>
+    <row r="245" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="4"/>
       <c r="C245" s="2"/>
@@ -10506,18 +11196,20 @@
       <c r="Z245" s="5"/>
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
-      <c r="AC245" s="11"/>
-      <c r="AD245" s="12"/>
+      <c r="AC245" s="5"/>
+      <c r="AD245" s="5"/>
       <c r="AE245" s="11"/>
-      <c r="AF245" s="11"/>
-      <c r="AG245" s="10"/>
-      <c r="AH245" s="10"/>
+      <c r="AF245" s="12"/>
+      <c r="AG245" s="11"/>
+      <c r="AH245" s="11"/>
       <c r="AI245" s="10"/>
       <c r="AJ245" s="10"/>
       <c r="AK245" s="10"/>
       <c r="AL245" s="10"/>
-    </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM245" s="10"/>
+      <c r="AN245" s="10"/>
+    </row>
+    <row r="246" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -10546,18 +11238,20 @@
       <c r="Z246" s="5"/>
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
-      <c r="AC246" s="11"/>
-      <c r="AD246" s="12"/>
+      <c r="AC246" s="5"/>
+      <c r="AD246" s="5"/>
       <c r="AE246" s="11"/>
-      <c r="AF246" s="11"/>
-      <c r="AG246" s="10"/>
-      <c r="AH246" s="10"/>
+      <c r="AF246" s="12"/>
+      <c r="AG246" s="11"/>
+      <c r="AH246" s="11"/>
       <c r="AI246" s="10"/>
       <c r="AJ246" s="10"/>
       <c r="AK246" s="10"/>
       <c r="AL246" s="10"/>
-    </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM246" s="10"/>
+      <c r="AN246" s="10"/>
+    </row>
+    <row r="247" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -10586,18 +11280,20 @@
       <c r="Z247" s="5"/>
       <c r="AA247" s="5"/>
       <c r="AB247" s="5"/>
-      <c r="AC247" s="11"/>
-      <c r="AD247" s="11"/>
+      <c r="AC247" s="5"/>
+      <c r="AD247" s="5"/>
       <c r="AE247" s="11"/>
       <c r="AF247" s="11"/>
-      <c r="AG247" s="10"/>
-      <c r="AH247" s="10"/>
+      <c r="AG247" s="11"/>
+      <c r="AH247" s="11"/>
       <c r="AI247" s="10"/>
       <c r="AJ247" s="10"/>
       <c r="AK247" s="10"/>
       <c r="AL247" s="10"/>
-    </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM247" s="10"/>
+      <c r="AN247" s="10"/>
+    </row>
+    <row r="248" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -10626,18 +11322,20 @@
       <c r="Z248" s="5"/>
       <c r="AA248" s="5"/>
       <c r="AB248" s="5"/>
-      <c r="AC248" s="11"/>
-      <c r="AD248" s="12"/>
+      <c r="AC248" s="5"/>
+      <c r="AD248" s="5"/>
       <c r="AE248" s="11"/>
-      <c r="AF248" s="11"/>
-      <c r="AG248" s="10"/>
-      <c r="AH248" s="10"/>
+      <c r="AF248" s="12"/>
+      <c r="AG248" s="11"/>
+      <c r="AH248" s="11"/>
       <c r="AI248" s="10"/>
       <c r="AJ248" s="10"/>
       <c r="AK248" s="10"/>
       <c r="AL248" s="10"/>
-    </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM248" s="10"/>
+      <c r="AN248" s="10"/>
+    </row>
+    <row r="249" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="4"/>
       <c r="C249" s="2"/>
@@ -10666,18 +11364,20 @@
       <c r="Z249" s="5"/>
       <c r="AA249" s="5"/>
       <c r="AB249" s="5"/>
-      <c r="AC249" s="11"/>
-      <c r="AD249" s="11"/>
+      <c r="AC249" s="5"/>
+      <c r="AD249" s="5"/>
       <c r="AE249" s="11"/>
       <c r="AF249" s="11"/>
-      <c r="AG249" s="10"/>
-      <c r="AH249" s="10"/>
+      <c r="AG249" s="11"/>
+      <c r="AH249" s="11"/>
       <c r="AI249" s="10"/>
       <c r="AJ249" s="10"/>
       <c r="AK249" s="10"/>
       <c r="AL249" s="10"/>
-    </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM249" s="10"/>
+      <c r="AN249" s="10"/>
+    </row>
+    <row r="250" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -10706,18 +11406,20 @@
       <c r="Z250" s="5"/>
       <c r="AA250" s="5"/>
       <c r="AB250" s="5"/>
-      <c r="AC250" s="11"/>
-      <c r="AD250" s="12"/>
+      <c r="AC250" s="5"/>
+      <c r="AD250" s="5"/>
       <c r="AE250" s="11"/>
-      <c r="AF250" s="11"/>
-      <c r="AG250" s="10"/>
-      <c r="AH250" s="10"/>
+      <c r="AF250" s="12"/>
+      <c r="AG250" s="11"/>
+      <c r="AH250" s="11"/>
       <c r="AI250" s="10"/>
       <c r="AJ250" s="10"/>
       <c r="AK250" s="10"/>
       <c r="AL250" s="10"/>
-    </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM250" s="10"/>
+      <c r="AN250" s="10"/>
+    </row>
+    <row r="251" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -10746,18 +11448,20 @@
       <c r="Z251" s="5"/>
       <c r="AA251" s="5"/>
       <c r="AB251" s="5"/>
-      <c r="AC251" s="11"/>
-      <c r="AD251" s="12"/>
+      <c r="AC251" s="5"/>
+      <c r="AD251" s="5"/>
       <c r="AE251" s="11"/>
-      <c r="AF251" s="11"/>
-      <c r="AG251" s="10"/>
-      <c r="AH251" s="10"/>
+      <c r="AF251" s="12"/>
+      <c r="AG251" s="11"/>
+      <c r="AH251" s="11"/>
       <c r="AI251" s="10"/>
       <c r="AJ251" s="10"/>
       <c r="AK251" s="10"/>
       <c r="AL251" s="10"/>
-    </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM251" s="10"/>
+      <c r="AN251" s="10"/>
+    </row>
+    <row r="252" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -10786,18 +11490,20 @@
       <c r="Z252" s="5"/>
       <c r="AA252" s="5"/>
       <c r="AB252" s="5"/>
-      <c r="AC252" s="11"/>
-      <c r="AD252" s="12"/>
+      <c r="AC252" s="5"/>
+      <c r="AD252" s="5"/>
       <c r="AE252" s="11"/>
-      <c r="AF252" s="11"/>
-      <c r="AG252" s="10"/>
-      <c r="AH252" s="10"/>
+      <c r="AF252" s="12"/>
+      <c r="AG252" s="11"/>
+      <c r="AH252" s="11"/>
       <c r="AI252" s="10"/>
       <c r="AJ252" s="10"/>
       <c r="AK252" s="10"/>
       <c r="AL252" s="10"/>
-    </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM252" s="10"/>
+      <c r="AN252" s="10"/>
+    </row>
+    <row r="253" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="4"/>
       <c r="C253" s="2"/>
@@ -10826,18 +11532,20 @@
       <c r="Z253" s="5"/>
       <c r="AA253" s="5"/>
       <c r="AB253" s="5"/>
-      <c r="AC253" s="11"/>
-      <c r="AD253" s="12"/>
+      <c r="AC253" s="5"/>
+      <c r="AD253" s="5"/>
       <c r="AE253" s="11"/>
-      <c r="AF253" s="11"/>
-      <c r="AG253" s="10"/>
-      <c r="AH253" s="10"/>
+      <c r="AF253" s="12"/>
+      <c r="AG253" s="11"/>
+      <c r="AH253" s="11"/>
       <c r="AI253" s="10"/>
       <c r="AJ253" s="10"/>
       <c r="AK253" s="10"/>
       <c r="AL253" s="10"/>
-    </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM253" s="10"/>
+      <c r="AN253" s="10"/>
+    </row>
+    <row r="254" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -10866,18 +11574,20 @@
       <c r="Z254" s="5"/>
       <c r="AA254" s="5"/>
       <c r="AB254" s="5"/>
-      <c r="AC254" s="11"/>
-      <c r="AD254" s="11"/>
+      <c r="AC254" s="5"/>
+      <c r="AD254" s="5"/>
       <c r="AE254" s="11"/>
       <c r="AF254" s="11"/>
-      <c r="AG254" s="10"/>
-      <c r="AH254" s="10"/>
+      <c r="AG254" s="11"/>
+      <c r="AH254" s="11"/>
       <c r="AI254" s="10"/>
       <c r="AJ254" s="10"/>
       <c r="AK254" s="10"/>
       <c r="AL254" s="10"/>
-    </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM254" s="10"/>
+      <c r="AN254" s="10"/>
+    </row>
+    <row r="255" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -10906,18 +11616,20 @@
       <c r="Z255" s="5"/>
       <c r="AA255" s="5"/>
       <c r="AB255" s="5"/>
-      <c r="AC255" s="11"/>
-      <c r="AD255" s="12"/>
+      <c r="AC255" s="5"/>
+      <c r="AD255" s="5"/>
       <c r="AE255" s="11"/>
-      <c r="AF255" s="11"/>
-      <c r="AG255" s="10"/>
-      <c r="AH255" s="10"/>
+      <c r="AF255" s="12"/>
+      <c r="AG255" s="11"/>
+      <c r="AH255" s="11"/>
       <c r="AI255" s="10"/>
       <c r="AJ255" s="10"/>
       <c r="AK255" s="10"/>
       <c r="AL255" s="10"/>
-    </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM255" s="10"/>
+      <c r="AN255" s="10"/>
+    </row>
+    <row r="256" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -10946,18 +11658,20 @@
       <c r="Z256" s="5"/>
       <c r="AA256" s="5"/>
       <c r="AB256" s="5"/>
-      <c r="AC256" s="11"/>
-      <c r="AD256" s="12"/>
+      <c r="AC256" s="5"/>
+      <c r="AD256" s="5"/>
       <c r="AE256" s="11"/>
-      <c r="AF256" s="11"/>
-      <c r="AG256" s="10"/>
-      <c r="AH256" s="10"/>
+      <c r="AF256" s="12"/>
+      <c r="AG256" s="11"/>
+      <c r="AH256" s="11"/>
       <c r="AI256" s="10"/>
       <c r="AJ256" s="10"/>
       <c r="AK256" s="10"/>
       <c r="AL256" s="10"/>
-    </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM256" s="10"/>
+      <c r="AN256" s="10"/>
+    </row>
+    <row r="257" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="4"/>
       <c r="C257" s="2"/>
@@ -10986,18 +11700,20 @@
       <c r="Z257" s="5"/>
       <c r="AA257" s="5"/>
       <c r="AB257" s="5"/>
-      <c r="AC257" s="11"/>
-      <c r="AD257" s="11"/>
+      <c r="AC257" s="5"/>
+      <c r="AD257" s="5"/>
       <c r="AE257" s="11"/>
       <c r="AF257" s="11"/>
-      <c r="AG257" s="10"/>
-      <c r="AH257" s="10"/>
+      <c r="AG257" s="11"/>
+      <c r="AH257" s="11"/>
       <c r="AI257" s="10"/>
       <c r="AJ257" s="10"/>
       <c r="AK257" s="10"/>
       <c r="AL257" s="10"/>
-    </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM257" s="10"/>
+      <c r="AN257" s="10"/>
+    </row>
+    <row r="258" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -11026,18 +11742,20 @@
       <c r="Z258" s="5"/>
       <c r="AA258" s="5"/>
       <c r="AB258" s="5"/>
-      <c r="AC258" s="11"/>
-      <c r="AD258" s="12"/>
+      <c r="AC258" s="5"/>
+      <c r="AD258" s="5"/>
       <c r="AE258" s="11"/>
-      <c r="AF258" s="11"/>
-      <c r="AG258" s="10"/>
-      <c r="AH258" s="10"/>
+      <c r="AF258" s="12"/>
+      <c r="AG258" s="11"/>
+      <c r="AH258" s="11"/>
       <c r="AI258" s="10"/>
       <c r="AJ258" s="10"/>
       <c r="AK258" s="10"/>
       <c r="AL258" s="10"/>
-    </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM258" s="10"/>
+      <c r="AN258" s="10"/>
+    </row>
+    <row r="259" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -11066,18 +11784,20 @@
       <c r="Z259" s="5"/>
       <c r="AA259" s="5"/>
       <c r="AB259" s="5"/>
-      <c r="AC259" s="11"/>
-      <c r="AD259" s="12"/>
+      <c r="AC259" s="5"/>
+      <c r="AD259" s="5"/>
       <c r="AE259" s="11"/>
-      <c r="AF259" s="11"/>
-      <c r="AG259" s="10"/>
-      <c r="AH259" s="10"/>
+      <c r="AF259" s="12"/>
+      <c r="AG259" s="11"/>
+      <c r="AH259" s="11"/>
       <c r="AI259" s="10"/>
       <c r="AJ259" s="10"/>
       <c r="AK259" s="10"/>
       <c r="AL259" s="10"/>
-    </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM259" s="10"/>
+      <c r="AN259" s="10"/>
+    </row>
+    <row r="260" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -11106,16 +11826,18 @@
       <c r="Z260" s="5"/>
       <c r="AA260" s="5"/>
       <c r="AB260" s="5"/>
-      <c r="AC260" s="11"/>
-      <c r="AD260" s="11"/>
+      <c r="AC260" s="5"/>
+      <c r="AD260" s="5"/>
       <c r="AE260" s="11"/>
       <c r="AF260" s="11"/>
-      <c r="AG260" s="10"/>
-      <c r="AH260" s="10"/>
+      <c r="AG260" s="11"/>
+      <c r="AH260" s="11"/>
       <c r="AI260" s="10"/>
       <c r="AJ260" s="10"/>
       <c r="AK260" s="10"/>
       <c r="AL260" s="10"/>
+      <c r="AM260" s="10"/>
+      <c r="AN260" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>

--- a/src/assets/farmer-import/Template_list of farmers_NEW.xlsx
+++ b/src/assets/farmer-import/Template_list of farmers_NEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpaspalovski/IntellijProjects/inatrace/inatrace-fe/src/assets/farmer-import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657AFD19-E069-1245-8E26-B400E0E1B0AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39A5A1B-2F8D-C844-B767-CB25519013C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>List of farmers</t>
   </si>
@@ -145,118 +145,10 @@
     </r>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>L-PT-1-1</t>
-  </si>
-  <si>
-    <t>L-PT-1-2</t>
-  </si>
-  <si>
-    <t>L-PT-2-1</t>
-  </si>
-  <si>
-    <t>L-PT-2-2</t>
-  </si>
-  <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t>A26</t>
-  </si>
-  <si>
-    <t>A27</t>
-  </si>
-  <si>
-    <t>A28</t>
-  </si>
-  <si>
-    <t>A29</t>
-  </si>
-  <si>
-    <t>A30</t>
-  </si>
-  <si>
     <t>Area cultivated with coffee</t>
   </si>
   <si>
     <t>Number of coffee plants</t>
-  </si>
-  <si>
-    <t>Area cultivated with macadamia</t>
-  </si>
-  <si>
-    <t>Number of macadamia plants</t>
   </si>
 </sst>
 </file>
@@ -477,10 +369,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -845,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -877,11 +769,11 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="26" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -912,108 +804,40 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG4" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH4" s="27" t="s">
-        <v>64</v>
-      </c>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -1090,17 +914,13 @@
         <v>28</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
-      <c r="Z5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>68</v>
-      </c>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
       <c r="AB5" s="21" t="s">
         <v>26</v>
       </c>

--- a/src/assets/farmer-import/Template_list of farmers_NEW.xlsx
+++ b/src/assets/farmer-import/Template_list of farmers_NEW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpaspalovski/IntellijProjects/inatrace/inatrace-fe/src/assets/farmer-import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pecea/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39A5A1B-2F8D-C844-B767-CB25519013C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE283D1-FF72-3F40-8178-18F7EB654631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,10 @@
     </r>
   </si>
   <si>
-    <t>Area cultivated with coffee</t>
+    <t>Area cultivated with product of type</t>
   </si>
   <si>
-    <t>Number of coffee plants</t>
+    <t>Number of product type plants</t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
